--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>156600</v>
+        <v>201600</v>
       </c>
       <c r="E8" s="3">
-        <v>151000</v>
+        <v>152800</v>
       </c>
       <c r="F8" s="3">
-        <v>62300</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>147300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>60800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>58700</v>
+        <v>59100</v>
       </c>
       <c r="E9" s="3">
-        <v>55400</v>
+        <v>57200</v>
       </c>
       <c r="F9" s="3">
-        <v>24400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>54000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>23800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>97900</v>
+        <v>142400</v>
       </c>
       <c r="E10" s="3">
-        <v>95600</v>
+        <v>95500</v>
       </c>
       <c r="F10" s="3">
-        <v>37900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>93200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>37000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,23 +825,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6700</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>2800</v>
+        <v>6500</v>
       </c>
       <c r="F12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,24 +888,27 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100</v>
+        <v>4800</v>
       </c>
       <c r="E14" s="3">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>116900</v>
+        <v>156300</v>
       </c>
       <c r="E17" s="3">
-        <v>83500</v>
+        <v>114000</v>
       </c>
       <c r="F17" s="3">
-        <v>35900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>81500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>35000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>39700</v>
+        <v>45200</v>
       </c>
       <c r="E18" s="3">
-        <v>67400</v>
+        <v>38700</v>
       </c>
       <c r="F18" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>65800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>25800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19800</v>
+        <v>24900</v>
       </c>
       <c r="E20" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>60600</v>
+        <v>71600</v>
       </c>
       <c r="E21" s="3">
-        <v>69500</v>
+        <v>59100</v>
       </c>
       <c r="F21" s="3">
-        <v>27000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>67800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>26400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,24 +1113,27 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
-        <v>1900</v>
-      </c>
       <c r="F22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>56800</v>
+        <v>68300</v>
       </c>
       <c r="E23" s="3">
-        <v>67200</v>
+        <v>55400</v>
       </c>
       <c r="F23" s="3">
-        <v>26800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>65600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>26100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12800</v>
+        <v>11600</v>
       </c>
       <c r="E24" s="3">
-        <v>17100</v>
+        <v>12500</v>
       </c>
       <c r="F24" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>16700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44000</v>
+        <v>56700</v>
       </c>
       <c r="E26" s="3">
-        <v>50100</v>
+        <v>43000</v>
       </c>
       <c r="F26" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>48900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>18700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43400</v>
+        <v>54700</v>
       </c>
       <c r="E27" s="3">
-        <v>24600</v>
+        <v>42400</v>
       </c>
       <c r="F27" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>9100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19800</v>
+        <v>-24900</v>
       </c>
       <c r="E32" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43400</v>
+        <v>54700</v>
       </c>
       <c r="E33" s="3">
-        <v>24600</v>
+        <v>42400</v>
       </c>
       <c r="F33" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>9100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43400</v>
+        <v>54700</v>
       </c>
       <c r="E35" s="3">
-        <v>24600</v>
+        <v>42400</v>
       </c>
       <c r="F35" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>9100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>417900</v>
+        <v>280600</v>
       </c>
       <c r="E41" s="3">
-        <v>115300</v>
+        <v>408300</v>
       </c>
       <c r="F41" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>112600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38100</v>
+        <v>83700</v>
       </c>
       <c r="E42" s="3">
-        <v>9000</v>
+        <v>37300</v>
       </c>
       <c r="F42" s="3">
-        <v>15200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>175000</v>
+        <v>260200</v>
       </c>
       <c r="E43" s="3">
-        <v>22300</v>
+        <v>170900</v>
       </c>
       <c r="F43" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>21800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>19500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,24 +1775,27 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51100</v>
+        <v>152100</v>
       </c>
       <c r="E45" s="3">
-        <v>12500</v>
+        <v>49900</v>
       </c>
       <c r="F45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>682200</v>
+        <v>776600</v>
       </c>
       <c r="E46" s="3">
-        <v>159000</v>
+        <v>666400</v>
       </c>
       <c r="F46" s="3">
-        <v>43300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>155300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>42300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>226100</v>
+        <v>281500</v>
       </c>
       <c r="E47" s="3">
-        <v>69500</v>
+        <v>220900</v>
       </c>
       <c r="F47" s="3">
-        <v>49300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>67900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>48100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
-        <v>600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21100</v>
+        <v>26600</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>20600</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115600</v>
+        <v>137700</v>
       </c>
       <c r="E52" s="3">
-        <v>56300</v>
+        <v>112900</v>
       </c>
       <c r="F52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>55000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1047600</v>
+        <v>1224500</v>
       </c>
       <c r="E54" s="3">
-        <v>286500</v>
+        <v>1023300</v>
       </c>
       <c r="F54" s="3">
-        <v>102600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>279900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2138,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>161700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>322800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>158000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2065,26 +2198,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>60500</v>
+        <v>83800</v>
       </c>
       <c r="E59" s="3">
-        <v>74200</v>
+        <v>59100</v>
       </c>
       <c r="F59" s="3">
-        <v>40400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>72500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>39500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>224600</v>
+        <v>407700</v>
       </c>
       <c r="E60" s="3">
-        <v>75500</v>
+        <v>219400</v>
       </c>
       <c r="F60" s="3">
-        <v>41200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>73800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>40200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>67800</v>
+        <v>42300</v>
       </c>
       <c r="E61" s="3">
-        <v>25100</v>
+        <v>66300</v>
       </c>
       <c r="F61" s="3">
-        <v>27200</v>
+        <v>24500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>26600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
-        <v>5100</v>
-      </c>
       <c r="F62" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>294000</v>
+        <v>456700</v>
       </c>
       <c r="E66" s="3">
-        <v>109400</v>
+        <v>287200</v>
       </c>
       <c r="F66" s="3">
-        <v>74500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>106900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>72800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>565600</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>565600</v>
+        <v>552500</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>552500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>100200</v>
+        <v>119500</v>
       </c>
       <c r="E72" s="3">
-        <v>-389000</v>
+        <v>97800</v>
       </c>
       <c r="F72" s="3">
-        <v>-538200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-380000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-525700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>753500</v>
+        <v>767800</v>
       </c>
       <c r="E76" s="3">
-        <v>-388500</v>
+        <v>736100</v>
       </c>
       <c r="F76" s="3">
-        <v>-537500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-379500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-525100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43400</v>
+        <v>54700</v>
       </c>
       <c r="E81" s="3">
-        <v>24600</v>
+        <v>42400</v>
       </c>
       <c r="F81" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>9100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,23 +2899,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26500</v>
+        <v>59200</v>
       </c>
       <c r="E89" s="3">
-        <v>84600</v>
+        <v>25900</v>
       </c>
       <c r="F89" s="3">
-        <v>11900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>82500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>11600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,23 +3145,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100</v>
+        <v>-6000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-235100</v>
+        <v>-167700</v>
       </c>
       <c r="E94" s="3">
-        <v>-23400</v>
+        <v>-229300</v>
       </c>
       <c r="F94" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-22800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-38100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>587000</v>
+        <v>102200</v>
       </c>
       <c r="E100" s="3">
-        <v>98400</v>
+        <v>572600</v>
       </c>
       <c r="F100" s="3">
-        <v>26900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>96000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>26200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15900</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,24 +3487,27 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>394200</v>
+        <v>-4700</v>
       </c>
       <c r="E102" s="3">
-        <v>155900</v>
+        <v>384600</v>
       </c>
       <c r="F102" s="3">
+        <v>152100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>201600</v>
+        <v>209100</v>
       </c>
       <c r="E8" s="3">
+        <v>158500</v>
+      </c>
+      <c r="F8" s="3">
         <v>152800</v>
       </c>
-      <c r="F8" s="3">
-        <v>147300</v>
-      </c>
       <c r="G8" s="3">
-        <v>60800</v>
+        <v>63100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>59100</v>
+        <v>61300</v>
       </c>
       <c r="E9" s="3">
-        <v>57200</v>
+        <v>59400</v>
       </c>
       <c r="F9" s="3">
-        <v>54000</v>
+        <v>56100</v>
       </c>
       <c r="G9" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>142400</v>
+        <v>147800</v>
       </c>
       <c r="E10" s="3">
-        <v>95500</v>
+        <v>99100</v>
       </c>
       <c r="F10" s="3">
-        <v>93200</v>
+        <v>96700</v>
       </c>
       <c r="G10" s="3">
-        <v>37000</v>
+        <v>38400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,13 +832,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="E12" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="F12" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>156300</v>
+        <v>162200</v>
       </c>
       <c r="E17" s="3">
-        <v>114000</v>
+        <v>118300</v>
       </c>
       <c r="F17" s="3">
-        <v>81500</v>
+        <v>84600</v>
       </c>
       <c r="G17" s="3">
-        <v>35000</v>
+        <v>36300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45200</v>
+        <v>47000</v>
       </c>
       <c r="E18" s="3">
-        <v>38700</v>
+        <v>40200</v>
       </c>
       <c r="F18" s="3">
-        <v>65800</v>
+        <v>68300</v>
       </c>
       <c r="G18" s="3">
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="E20" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="F20" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>71600</v>
+        <v>74300</v>
       </c>
       <c r="E21" s="3">
-        <v>59100</v>
+        <v>61300</v>
       </c>
       <c r="F21" s="3">
-        <v>67800</v>
+        <v>70400</v>
       </c>
       <c r="G21" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1800</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68300</v>
+        <v>70800</v>
       </c>
       <c r="E23" s="3">
-        <v>55400</v>
+        <v>57500</v>
       </c>
       <c r="F23" s="3">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="G23" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="E24" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="F24" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="G24" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56700</v>
+        <v>58800</v>
       </c>
       <c r="E26" s="3">
-        <v>43000</v>
+        <v>44600</v>
       </c>
       <c r="F26" s="3">
-        <v>48900</v>
+        <v>50700</v>
       </c>
       <c r="G26" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>54700</v>
+        <v>56800</v>
       </c>
       <c r="E27" s="3">
-        <v>42400</v>
+        <v>44000</v>
       </c>
       <c r="F27" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="G27" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24900</v>
+        <v>-25800</v>
       </c>
       <c r="E32" s="3">
-        <v>-19400</v>
+        <v>-20100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>54700</v>
+        <v>56800</v>
       </c>
       <c r="E33" s="3">
-        <v>42400</v>
+        <v>44000</v>
       </c>
       <c r="F33" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="G33" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>54700</v>
+        <v>56800</v>
       </c>
       <c r="E35" s="3">
-        <v>42400</v>
+        <v>44000</v>
       </c>
       <c r="F35" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="G35" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>280600</v>
+        <v>290800</v>
       </c>
       <c r="E41" s="3">
-        <v>408300</v>
+        <v>423000</v>
       </c>
       <c r="F41" s="3">
-        <v>112600</v>
+        <v>116700</v>
       </c>
       <c r="G41" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>83700</v>
+        <v>86700</v>
       </c>
       <c r="E42" s="3">
-        <v>37300</v>
+        <v>38600</v>
       </c>
       <c r="F42" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="G42" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>260200</v>
+        <v>269600</v>
       </c>
       <c r="E43" s="3">
-        <v>170900</v>
+        <v>177100</v>
       </c>
       <c r="F43" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="G43" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>152100</v>
+        <v>157600</v>
       </c>
       <c r="E45" s="3">
-        <v>49900</v>
+        <v>51700</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="G45" s="3">
         <v>1700</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>776600</v>
+        <v>804700</v>
       </c>
       <c r="E46" s="3">
-        <v>666400</v>
+        <v>690500</v>
       </c>
       <c r="F46" s="3">
-        <v>155300</v>
+        <v>161000</v>
       </c>
       <c r="G46" s="3">
-        <v>42300</v>
+        <v>43900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>281500</v>
+        <v>291700</v>
       </c>
       <c r="E47" s="3">
-        <v>220900</v>
+        <v>228900</v>
       </c>
       <c r="F47" s="3">
-        <v>67900</v>
+        <v>70400</v>
       </c>
       <c r="G47" s="3">
-        <v>48100</v>
+        <v>49900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1887,13 +1887,13 @@
         <v>2100</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="E49" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>137700</v>
+        <v>142700</v>
       </c>
       <c r="E52" s="3">
-        <v>112900</v>
+        <v>117000</v>
       </c>
       <c r="F52" s="3">
-        <v>55000</v>
+        <v>57000</v>
       </c>
       <c r="G52" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1224500</v>
+        <v>1268800</v>
       </c>
       <c r="E54" s="3">
-        <v>1023300</v>
+        <v>1060300</v>
       </c>
       <c r="F54" s="3">
-        <v>279900</v>
+        <v>290000</v>
       </c>
       <c r="G54" s="3">
-        <v>100200</v>
+        <v>103800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2151,7 +2151,7 @@
         <v>2400</v>
       </c>
       <c r="F57" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>322800</v>
+        <v>334500</v>
       </c>
       <c r="E58" s="3">
-        <v>158000</v>
+        <v>163700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>83800</v>
+        <v>86800</v>
       </c>
       <c r="E59" s="3">
-        <v>59100</v>
+        <v>61200</v>
       </c>
       <c r="F59" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="G59" s="3">
-        <v>39500</v>
+        <v>40900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>407700</v>
+        <v>422500</v>
       </c>
       <c r="E60" s="3">
-        <v>219400</v>
+        <v>227300</v>
       </c>
       <c r="F60" s="3">
-        <v>73800</v>
+        <v>76400</v>
       </c>
       <c r="G60" s="3">
-        <v>40200</v>
+        <v>41700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42300</v>
+        <v>43800</v>
       </c>
       <c r="E61" s="3">
-        <v>66300</v>
+        <v>68700</v>
       </c>
       <c r="F61" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="G61" s="3">
-        <v>26600</v>
+        <v>27500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G62" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>456700</v>
+        <v>473300</v>
       </c>
       <c r="E66" s="3">
-        <v>287200</v>
+        <v>297600</v>
       </c>
       <c r="F66" s="3">
-        <v>106900</v>
+        <v>110800</v>
       </c>
       <c r="G66" s="3">
-        <v>72800</v>
+        <v>75400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>552500</v>
+        <v>572500</v>
       </c>
       <c r="G70" s="3">
-        <v>552500</v>
+        <v>572500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>119500</v>
+        <v>123800</v>
       </c>
       <c r="E72" s="3">
-        <v>97800</v>
+        <v>101400</v>
       </c>
       <c r="F72" s="3">
-        <v>-380000</v>
+        <v>-393800</v>
       </c>
       <c r="G72" s="3">
-        <v>-525700</v>
+        <v>-544700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>767800</v>
+        <v>795500</v>
       </c>
       <c r="E76" s="3">
-        <v>736100</v>
+        <v>762700</v>
       </c>
       <c r="F76" s="3">
-        <v>-379500</v>
+        <v>-393300</v>
       </c>
       <c r="G76" s="3">
-        <v>-525100</v>
+        <v>-544100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>54700</v>
+        <v>56800</v>
       </c>
       <c r="E81" s="3">
-        <v>42400</v>
+        <v>44000</v>
       </c>
       <c r="F81" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="G81" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="E89" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="F89" s="3">
-        <v>82500</v>
+        <v>85600</v>
       </c>
       <c r="G89" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-167700</v>
+        <v>-174000</v>
       </c>
       <c r="E94" s="3">
-        <v>-229300</v>
+        <v>-238000</v>
       </c>
       <c r="F94" s="3">
-        <v>-22800</v>
+        <v>-23700</v>
       </c>
       <c r="G94" s="3">
-        <v>-38100</v>
+        <v>-39500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3299,16 +3299,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-37300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>102200</v>
+        <v>106100</v>
       </c>
       <c r="E100" s="3">
-        <v>572600</v>
+        <v>594200</v>
       </c>
       <c r="F100" s="3">
-        <v>96000</v>
+        <v>99600</v>
       </c>
       <c r="G100" s="3">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E101" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="E102" s="3">
-        <v>384600</v>
+        <v>399100</v>
       </c>
       <c r="F102" s="3">
-        <v>152100</v>
+        <v>157800</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>209100</v>
+        <v>219100</v>
       </c>
       <c r="E8" s="3">
-        <v>158500</v>
+        <v>166000</v>
       </c>
       <c r="F8" s="3">
-        <v>152800</v>
+        <v>160100</v>
       </c>
       <c r="G8" s="3">
-        <v>63100</v>
+        <v>66100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>61300</v>
+        <v>64200</v>
       </c>
       <c r="E9" s="3">
-        <v>59400</v>
+        <v>62200</v>
       </c>
       <c r="F9" s="3">
-        <v>56100</v>
+        <v>58700</v>
       </c>
       <c r="G9" s="3">
-        <v>24700</v>
+        <v>25900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>147800</v>
+        <v>154800</v>
       </c>
       <c r="E10" s="3">
-        <v>99100</v>
+        <v>103800</v>
       </c>
       <c r="F10" s="3">
-        <v>96700</v>
+        <v>101300</v>
       </c>
       <c r="G10" s="3">
-        <v>38400</v>
+        <v>40200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="E12" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="F12" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E14" s="3">
         <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>162200</v>
+        <v>169900</v>
       </c>
       <c r="E17" s="3">
-        <v>118300</v>
+        <v>123900</v>
       </c>
       <c r="F17" s="3">
-        <v>84600</v>
+        <v>88600</v>
       </c>
       <c r="G17" s="3">
-        <v>36300</v>
+        <v>38000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>47000</v>
+        <v>49200</v>
       </c>
       <c r="E18" s="3">
-        <v>40200</v>
+        <v>42100</v>
       </c>
       <c r="F18" s="3">
-        <v>68300</v>
+        <v>71500</v>
       </c>
       <c r="G18" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25800</v>
+        <v>27100</v>
       </c>
       <c r="E20" s="3">
-        <v>20100</v>
+        <v>21000</v>
       </c>
       <c r="F20" s="3">
         <v>1700</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74300</v>
+        <v>77800</v>
       </c>
       <c r="E21" s="3">
-        <v>61300</v>
+        <v>64200</v>
       </c>
       <c r="F21" s="3">
-        <v>70400</v>
+        <v>73700</v>
       </c>
       <c r="G21" s="3">
-        <v>27400</v>
+        <v>28700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1126,10 +1126,10 @@
         <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>70800</v>
+        <v>74200</v>
       </c>
       <c r="E23" s="3">
-        <v>57500</v>
+        <v>60200</v>
       </c>
       <c r="F23" s="3">
-        <v>68000</v>
+        <v>71300</v>
       </c>
       <c r="G23" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="E24" s="3">
-        <v>12900</v>
+        <v>13600</v>
       </c>
       <c r="F24" s="3">
-        <v>17300</v>
+        <v>18200</v>
       </c>
       <c r="G24" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58800</v>
+        <v>61600</v>
       </c>
       <c r="E26" s="3">
-        <v>44600</v>
+        <v>46700</v>
       </c>
       <c r="F26" s="3">
-        <v>50700</v>
+        <v>53100</v>
       </c>
       <c r="G26" s="3">
-        <v>19400</v>
+        <v>20300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56800</v>
+        <v>59500</v>
       </c>
       <c r="E27" s="3">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="F27" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G27" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25800</v>
+        <v>-27100</v>
       </c>
       <c r="E32" s="3">
-        <v>-20100</v>
+        <v>-21000</v>
       </c>
       <c r="F32" s="3">
         <v>-1700</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56800</v>
+        <v>59500</v>
       </c>
       <c r="E33" s="3">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="F33" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G33" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56800</v>
+        <v>59500</v>
       </c>
       <c r="E35" s="3">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="F35" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G35" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>290800</v>
+        <v>304600</v>
       </c>
       <c r="E41" s="3">
-        <v>423000</v>
+        <v>443100</v>
       </c>
       <c r="F41" s="3">
-        <v>116700</v>
+        <v>122200</v>
       </c>
       <c r="G41" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>86700</v>
+        <v>90900</v>
       </c>
       <c r="E42" s="3">
-        <v>38600</v>
+        <v>40400</v>
       </c>
       <c r="F42" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="G42" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>269600</v>
+        <v>282400</v>
       </c>
       <c r="E43" s="3">
-        <v>177100</v>
+        <v>185500</v>
       </c>
       <c r="F43" s="3">
-        <v>22500</v>
+        <v>23600</v>
       </c>
       <c r="G43" s="3">
-        <v>20200</v>
+        <v>21100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>157600</v>
+        <v>165100</v>
       </c>
       <c r="E45" s="3">
-        <v>51700</v>
+        <v>54200</v>
       </c>
       <c r="F45" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="G45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>804700</v>
+        <v>842900</v>
       </c>
       <c r="E46" s="3">
-        <v>690500</v>
+        <v>723300</v>
       </c>
       <c r="F46" s="3">
-        <v>161000</v>
+        <v>168600</v>
       </c>
       <c r="G46" s="3">
-        <v>43900</v>
+        <v>45900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>291700</v>
+        <v>305500</v>
       </c>
       <c r="E47" s="3">
-        <v>228900</v>
+        <v>239700</v>
       </c>
       <c r="F47" s="3">
-        <v>70400</v>
+        <v>73700</v>
       </c>
       <c r="G47" s="3">
-        <v>49900</v>
+        <v>52200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="E49" s="3">
-        <v>21300</v>
+        <v>22300</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142700</v>
+        <v>149500</v>
       </c>
       <c r="E52" s="3">
-        <v>117000</v>
+        <v>122500</v>
       </c>
       <c r="F52" s="3">
-        <v>57000</v>
+        <v>59700</v>
       </c>
       <c r="G52" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1268800</v>
+        <v>1329000</v>
       </c>
       <c r="E54" s="3">
-        <v>1060300</v>
+        <v>1110600</v>
       </c>
       <c r="F54" s="3">
-        <v>290000</v>
+        <v>303800</v>
       </c>
       <c r="G54" s="3">
-        <v>103800</v>
+        <v>108700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>334500</v>
+        <v>350400</v>
       </c>
       <c r="E58" s="3">
-        <v>163700</v>
+        <v>171500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86800</v>
+        <v>90900</v>
       </c>
       <c r="E59" s="3">
-        <v>61200</v>
+        <v>64100</v>
       </c>
       <c r="F59" s="3">
-        <v>75100</v>
+        <v>78600</v>
       </c>
       <c r="G59" s="3">
-        <v>40900</v>
+        <v>42900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>422500</v>
+        <v>442500</v>
       </c>
       <c r="E60" s="3">
-        <v>227300</v>
+        <v>238100</v>
       </c>
       <c r="F60" s="3">
-        <v>76400</v>
+        <v>80100</v>
       </c>
       <c r="G60" s="3">
-        <v>41700</v>
+        <v>43600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43800</v>
+        <v>45900</v>
       </c>
       <c r="E61" s="3">
-        <v>68700</v>
+        <v>71900</v>
       </c>
       <c r="F61" s="3">
-        <v>25400</v>
+        <v>26600</v>
       </c>
       <c r="G61" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G62" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>473300</v>
+        <v>495700</v>
       </c>
       <c r="E66" s="3">
-        <v>297600</v>
+        <v>311700</v>
       </c>
       <c r="F66" s="3">
-        <v>110800</v>
+        <v>116000</v>
       </c>
       <c r="G66" s="3">
-        <v>75400</v>
+        <v>79000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>572500</v>
+        <v>599600</v>
       </c>
       <c r="G70" s="3">
-        <v>572500</v>
+        <v>599600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>123800</v>
+        <v>129700</v>
       </c>
       <c r="E72" s="3">
-        <v>101400</v>
+        <v>106200</v>
       </c>
       <c r="F72" s="3">
-        <v>-393800</v>
+        <v>-412500</v>
       </c>
       <c r="G72" s="3">
-        <v>-544700</v>
+        <v>-570600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>795500</v>
+        <v>833300</v>
       </c>
       <c r="E76" s="3">
-        <v>762700</v>
+        <v>798900</v>
       </c>
       <c r="F76" s="3">
-        <v>-393300</v>
+        <v>-411900</v>
       </c>
       <c r="G76" s="3">
-        <v>-544100</v>
+        <v>-569800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56800</v>
+        <v>59500</v>
       </c>
       <c r="E81" s="3">
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="F81" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G81" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>61400</v>
+        <v>64300</v>
       </c>
       <c r="E89" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="F89" s="3">
-        <v>85600</v>
+        <v>89600</v>
       </c>
       <c r="G89" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-174000</v>
+        <v>-182300</v>
       </c>
       <c r="E94" s="3">
-        <v>-238000</v>
+        <v>-249300</v>
       </c>
       <c r="F94" s="3">
-        <v>-23700</v>
+        <v>-24800</v>
       </c>
       <c r="G94" s="3">
-        <v>-39500</v>
+        <v>-41400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3299,16 +3299,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-37300</v>
+        <v>-39100</v>
       </c>
       <c r="E96" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>106100</v>
+        <v>111100</v>
       </c>
       <c r="E100" s="3">
-        <v>594200</v>
+        <v>622300</v>
       </c>
       <c r="F100" s="3">
-        <v>99600</v>
+        <v>104300</v>
       </c>
       <c r="G100" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3497,13 +3497,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="E102" s="3">
-        <v>399100</v>
+        <v>418000</v>
       </c>
       <c r="F102" s="3">
-        <v>157800</v>
+        <v>165300</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>219100</v>
+        <v>313600</v>
       </c>
       <c r="E8" s="3">
-        <v>166000</v>
+        <v>220000</v>
       </c>
       <c r="F8" s="3">
-        <v>160100</v>
+        <v>166700</v>
       </c>
       <c r="G8" s="3">
-        <v>66100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>160800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>66300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>64200</v>
+        <v>167800</v>
       </c>
       <c r="E9" s="3">
-        <v>62200</v>
+        <v>64500</v>
       </c>
       <c r="F9" s="3">
-        <v>58700</v>
+        <v>62500</v>
       </c>
       <c r="G9" s="3">
-        <v>25900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>59000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,26 +783,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>154800</v>
+        <v>145800</v>
       </c>
       <c r="E10" s="3">
-        <v>103800</v>
+        <v>155500</v>
       </c>
       <c r="F10" s="3">
-        <v>101300</v>
+        <v>104300</v>
       </c>
       <c r="G10" s="3">
-        <v>40200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>101800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>40400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,26 +838,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8700</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,27 +907,30 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>5200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>169900</v>
+        <v>264900</v>
       </c>
       <c r="E17" s="3">
-        <v>123900</v>
+        <v>170600</v>
       </c>
       <c r="F17" s="3">
-        <v>88600</v>
+        <v>124500</v>
       </c>
       <c r="G17" s="3">
-        <v>38000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>88900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>38200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49200</v>
+        <v>48600</v>
       </c>
       <c r="E18" s="3">
-        <v>42100</v>
+        <v>49400</v>
       </c>
       <c r="F18" s="3">
-        <v>71500</v>
+        <v>42300</v>
       </c>
       <c r="G18" s="3">
-        <v>28100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>71800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>28200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27100</v>
+        <v>523700</v>
       </c>
       <c r="E20" s="3">
-        <v>21000</v>
+        <v>27200</v>
       </c>
       <c r="F20" s="3">
+        <v>21100</v>
+      </c>
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>77800</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>64200</v>
+        <v>78200</v>
       </c>
       <c r="F21" s="3">
-        <v>73700</v>
+        <v>64500</v>
       </c>
       <c r="G21" s="3">
-        <v>28700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>74000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>28800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,27 +1152,30 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74200</v>
+        <v>571900</v>
       </c>
       <c r="E23" s="3">
-        <v>60200</v>
+        <v>74500</v>
       </c>
       <c r="F23" s="3">
-        <v>71300</v>
+        <v>60500</v>
       </c>
       <c r="G23" s="3">
-        <v>28400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>71600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>28500</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,27 +1224,30 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12600</v>
+        <v>56500</v>
       </c>
       <c r="E24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F24" s="3">
         <v>13600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61600</v>
+        <v>515400</v>
       </c>
       <c r="E26" s="3">
-        <v>46700</v>
+        <v>61900</v>
       </c>
       <c r="F26" s="3">
-        <v>53100</v>
+        <v>46900</v>
       </c>
       <c r="G26" s="3">
-        <v>20300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>53300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,27 +1332,30 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>59500</v>
+        <v>514800</v>
       </c>
       <c r="E27" s="3">
-        <v>46000</v>
+        <v>59700</v>
       </c>
       <c r="F27" s="3">
-        <v>26100</v>
+        <v>46200</v>
       </c>
       <c r="G27" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H27" s="3">
         <v>9900</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27100</v>
+        <v>-523700</v>
       </c>
       <c r="E32" s="3">
-        <v>-21000</v>
+        <v>-27200</v>
       </c>
       <c r="F32" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,27 +1548,30 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>59500</v>
+        <v>514800</v>
       </c>
       <c r="E33" s="3">
-        <v>46000</v>
+        <v>59700</v>
       </c>
       <c r="F33" s="3">
-        <v>26100</v>
+        <v>46200</v>
       </c>
       <c r="G33" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,27 +1620,30 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>59500</v>
+        <v>514800</v>
       </c>
       <c r="E35" s="3">
-        <v>46000</v>
+        <v>59700</v>
       </c>
       <c r="F35" s="3">
-        <v>26100</v>
+        <v>46200</v>
       </c>
       <c r="G35" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>304600</v>
+        <v>218000</v>
       </c>
       <c r="E41" s="3">
-        <v>443100</v>
+        <v>305900</v>
       </c>
       <c r="F41" s="3">
-        <v>122200</v>
+        <v>445000</v>
       </c>
       <c r="G41" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>122700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90900</v>
+        <v>663400</v>
       </c>
       <c r="E42" s="3">
-        <v>40400</v>
+        <v>91300</v>
       </c>
       <c r="F42" s="3">
+        <v>40600</v>
+      </c>
+      <c r="G42" s="3">
         <v>9500</v>
       </c>
-      <c r="G42" s="3">
-        <v>16100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>16200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>282400</v>
+        <v>391400</v>
       </c>
       <c r="E43" s="3">
-        <v>185500</v>
+        <v>283600</v>
       </c>
       <c r="F43" s="3">
-        <v>23600</v>
+        <v>186300</v>
       </c>
       <c r="G43" s="3">
-        <v>21100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>23700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>21200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>165100</v>
+        <v>86800</v>
       </c>
       <c r="E45" s="3">
-        <v>54200</v>
+        <v>165800</v>
       </c>
       <c r="F45" s="3">
+        <v>54400</v>
+      </c>
+      <c r="G45" s="3">
         <v>13300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>842900</v>
+        <v>1359600</v>
       </c>
       <c r="E46" s="3">
-        <v>723300</v>
+        <v>846500</v>
       </c>
       <c r="F46" s="3">
-        <v>168600</v>
+        <v>726400</v>
       </c>
       <c r="G46" s="3">
-        <v>45900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>169300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>46100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,26 +1945,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>305500</v>
+        <v>265200</v>
       </c>
       <c r="E47" s="3">
-        <v>239700</v>
+        <v>306900</v>
       </c>
       <c r="F47" s="3">
-        <v>73700</v>
+        <v>240800</v>
       </c>
       <c r="G47" s="3">
-        <v>52200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>74000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>52500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,27 +1981,30 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,27 +2017,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="E49" s="3">
-        <v>22300</v>
+        <v>29000</v>
       </c>
       <c r="F49" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149500</v>
+        <v>200300</v>
       </c>
       <c r="E52" s="3">
-        <v>122500</v>
+        <v>150100</v>
       </c>
       <c r="F52" s="3">
-        <v>59700</v>
+        <v>123100</v>
       </c>
       <c r="G52" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H52" s="3">
         <v>9800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1329000</v>
+        <v>1855700</v>
       </c>
       <c r="E54" s="3">
-        <v>1110600</v>
+        <v>1334800</v>
       </c>
       <c r="F54" s="3">
-        <v>303800</v>
+        <v>1115500</v>
       </c>
       <c r="G54" s="3">
-        <v>108700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>305100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>109200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>350400</v>
+        <v>242100</v>
       </c>
       <c r="E58" s="3">
-        <v>171500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>351900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>172200</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2201,29 +2334,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>90900</v>
+        <v>133300</v>
       </c>
       <c r="E59" s="3">
-        <v>64100</v>
+        <v>91300</v>
       </c>
       <c r="F59" s="3">
-        <v>78600</v>
+        <v>64400</v>
       </c>
       <c r="G59" s="3">
-        <v>42900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>79000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>43100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>442500</v>
+        <v>375400</v>
       </c>
       <c r="E60" s="3">
-        <v>238100</v>
+        <v>444500</v>
       </c>
       <c r="F60" s="3">
-        <v>80100</v>
+        <v>239200</v>
       </c>
       <c r="G60" s="3">
-        <v>43600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>80400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>43800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45900</v>
+        <v>149400</v>
       </c>
       <c r="E61" s="3">
-        <v>71900</v>
+        <v>46100</v>
       </c>
       <c r="F61" s="3">
-        <v>26600</v>
+        <v>72200</v>
       </c>
       <c r="G61" s="3">
-        <v>28800</v>
+        <v>26700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,27 +2445,30 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E62" s="3">
         <v>5200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>495700</v>
+        <v>576100</v>
       </c>
       <c r="E66" s="3">
-        <v>311700</v>
+        <v>497900</v>
       </c>
       <c r="F66" s="3">
-        <v>116000</v>
+        <v>313100</v>
       </c>
       <c r="G66" s="3">
-        <v>79000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>116500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>79300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>599600</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>599600</v>
+        <v>602200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>602200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>129700</v>
+        <v>604300</v>
       </c>
       <c r="E72" s="3">
-        <v>106200</v>
+        <v>130200</v>
       </c>
       <c r="F72" s="3">
-        <v>-412500</v>
+        <v>106600</v>
       </c>
       <c r="G72" s="3">
-        <v>-570600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-414200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-573000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>833300</v>
+        <v>1279600</v>
       </c>
       <c r="E76" s="3">
-        <v>798900</v>
+        <v>836900</v>
       </c>
       <c r="F76" s="3">
-        <v>-411900</v>
+        <v>802400</v>
       </c>
       <c r="G76" s="3">
-        <v>-569800</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-413600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-572300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,27 +3042,30 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>59500</v>
+        <v>514800</v>
       </c>
       <c r="E81" s="3">
-        <v>46000</v>
+        <v>59700</v>
       </c>
       <c r="F81" s="3">
-        <v>26100</v>
+        <v>46200</v>
       </c>
       <c r="G81" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,26 +3097,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>64300</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>28100</v>
+        <v>64600</v>
       </c>
       <c r="F89" s="3">
-        <v>89600</v>
+        <v>28200</v>
       </c>
       <c r="G89" s="3">
-        <v>12600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>90000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>12700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,26 +3365,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-6500</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-182300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-249300</v>
+        <v>-183100</v>
       </c>
       <c r="F94" s="3">
-        <v>-24800</v>
+        <v>-250400</v>
       </c>
       <c r="G94" s="3">
-        <v>-41400</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-24900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-41600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,26 +3525,27 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-39100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>111100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>622300</v>
+        <v>111600</v>
       </c>
       <c r="F100" s="3">
-        <v>104300</v>
+        <v>625000</v>
       </c>
       <c r="G100" s="3">
-        <v>28500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>104800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>28600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>16800</v>
-      </c>
       <c r="F101" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,27 +3738,30 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
-        <v>418000</v>
-      </c>
       <c r="F102" s="3">
-        <v>165300</v>
+        <v>419800</v>
       </c>
       <c r="G102" s="3">
+        <v>166000</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>313600</v>
+        <v>320200</v>
       </c>
       <c r="E8" s="3">
-        <v>220000</v>
+        <v>224700</v>
       </c>
       <c r="F8" s="3">
-        <v>166700</v>
+        <v>170300</v>
       </c>
       <c r="G8" s="3">
-        <v>160800</v>
+        <v>164200</v>
       </c>
       <c r="H8" s="3">
-        <v>66300</v>
+        <v>67800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>167800</v>
+        <v>150700</v>
       </c>
       <c r="E9" s="3">
-        <v>64500</v>
+        <v>65900</v>
       </c>
       <c r="F9" s="3">
-        <v>62500</v>
+        <v>63800</v>
       </c>
       <c r="G9" s="3">
-        <v>59000</v>
+        <v>60200</v>
       </c>
       <c r="H9" s="3">
-        <v>26000</v>
+        <v>26500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>145800</v>
+        <v>169500</v>
       </c>
       <c r="E10" s="3">
-        <v>155500</v>
+        <v>158800</v>
       </c>
       <c r="F10" s="3">
-        <v>104300</v>
+        <v>106500</v>
       </c>
       <c r="G10" s="3">
-        <v>101800</v>
+        <v>103900</v>
       </c>
       <c r="H10" s="3">
-        <v>40400</v>
+        <v>41200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="F12" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G12" s="3">
         <v>3000</v>
@@ -917,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F14" s="3">
         <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>264900</v>
+        <v>270500</v>
       </c>
       <c r="E17" s="3">
-        <v>170600</v>
+        <v>174200</v>
       </c>
       <c r="F17" s="3">
-        <v>124500</v>
+        <v>127100</v>
       </c>
       <c r="G17" s="3">
-        <v>88900</v>
+        <v>90800</v>
       </c>
       <c r="H17" s="3">
-        <v>38200</v>
+        <v>39000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48600</v>
+        <v>49700</v>
       </c>
       <c r="E18" s="3">
-        <v>49400</v>
+        <v>50400</v>
       </c>
       <c r="F18" s="3">
-        <v>42300</v>
+        <v>43200</v>
       </c>
       <c r="G18" s="3">
-        <v>71800</v>
+        <v>73300</v>
       </c>
       <c r="H18" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>523700</v>
+        <v>534800</v>
       </c>
       <c r="E20" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="F20" s="3">
-        <v>21100</v>
+        <v>21600</v>
       </c>
       <c r="G20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>585900</v>
       </c>
       <c r="E21" s="3">
-        <v>78200</v>
+        <v>79800</v>
       </c>
       <c r="F21" s="3">
-        <v>64500</v>
+        <v>65900</v>
       </c>
       <c r="G21" s="3">
-        <v>74000</v>
+        <v>75600</v>
       </c>
       <c r="H21" s="3">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1168,7 +1168,7 @@
         <v>2100</v>
       </c>
       <c r="F22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="3">
         <v>2000</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>571900</v>
+        <v>584000</v>
       </c>
       <c r="E23" s="3">
-        <v>74500</v>
+        <v>76100</v>
       </c>
       <c r="F23" s="3">
-        <v>60500</v>
+        <v>61800</v>
       </c>
       <c r="G23" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="H23" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56500</v>
+        <v>57700</v>
       </c>
       <c r="E24" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="F24" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="G24" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="H24" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>515400</v>
+        <v>526300</v>
       </c>
       <c r="E26" s="3">
-        <v>61900</v>
+        <v>63200</v>
       </c>
       <c r="F26" s="3">
-        <v>46900</v>
+        <v>47900</v>
       </c>
       <c r="G26" s="3">
-        <v>53300</v>
+        <v>54500</v>
       </c>
       <c r="H26" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>514800</v>
+        <v>525700</v>
       </c>
       <c r="E27" s="3">
-        <v>59700</v>
+        <v>61000</v>
       </c>
       <c r="F27" s="3">
-        <v>46200</v>
+        <v>47200</v>
       </c>
       <c r="G27" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="H27" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-523700</v>
+        <v>-534800</v>
       </c>
       <c r="E32" s="3">
-        <v>-27200</v>
+        <v>-27800</v>
       </c>
       <c r="F32" s="3">
-        <v>-21100</v>
+        <v>-21600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>514800</v>
+        <v>525700</v>
       </c>
       <c r="E33" s="3">
-        <v>59700</v>
+        <v>61000</v>
       </c>
       <c r="F33" s="3">
-        <v>46200</v>
+        <v>47200</v>
       </c>
       <c r="G33" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="H33" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>514800</v>
+        <v>525700</v>
       </c>
       <c r="E35" s="3">
-        <v>59700</v>
+        <v>61000</v>
       </c>
       <c r="F35" s="3">
-        <v>46200</v>
+        <v>47200</v>
       </c>
       <c r="G35" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="H35" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>218000</v>
+        <v>222600</v>
       </c>
       <c r="E41" s="3">
-        <v>305900</v>
+        <v>312400</v>
       </c>
       <c r="F41" s="3">
-        <v>445000</v>
+        <v>454400</v>
       </c>
       <c r="G41" s="3">
-        <v>122700</v>
+        <v>125300</v>
       </c>
       <c r="H41" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>663400</v>
+        <v>677500</v>
       </c>
       <c r="E42" s="3">
-        <v>91300</v>
+        <v>93200</v>
       </c>
       <c r="F42" s="3">
-        <v>40600</v>
+        <v>41500</v>
       </c>
       <c r="G42" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="H42" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>391400</v>
+        <v>399900</v>
       </c>
       <c r="E43" s="3">
-        <v>283600</v>
+        <v>289600</v>
       </c>
       <c r="F43" s="3">
-        <v>186300</v>
+        <v>190300</v>
       </c>
       <c r="G43" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="H43" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86800</v>
+        <v>88400</v>
       </c>
       <c r="E45" s="3">
-        <v>165800</v>
+        <v>169300</v>
       </c>
       <c r="F45" s="3">
-        <v>54400</v>
+        <v>55600</v>
       </c>
       <c r="G45" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="H45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1359600</v>
+        <v>1388300</v>
       </c>
       <c r="E46" s="3">
-        <v>846500</v>
+        <v>864400</v>
       </c>
       <c r="F46" s="3">
-        <v>726400</v>
+        <v>741800</v>
       </c>
       <c r="G46" s="3">
-        <v>169300</v>
+        <v>172900</v>
       </c>
       <c r="H46" s="3">
-        <v>46100</v>
+        <v>47100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>265200</v>
+        <v>270800</v>
       </c>
       <c r="E47" s="3">
-        <v>306900</v>
+        <v>313300</v>
       </c>
       <c r="F47" s="3">
-        <v>240800</v>
+        <v>245900</v>
       </c>
       <c r="G47" s="3">
-        <v>74000</v>
+        <v>75600</v>
       </c>
       <c r="H47" s="3">
-        <v>52500</v>
+        <v>53600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>2300</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="E49" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="F49" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200300</v>
+        <v>204500</v>
       </c>
       <c r="E52" s="3">
-        <v>150100</v>
+        <v>153300</v>
       </c>
       <c r="F52" s="3">
-        <v>123100</v>
+        <v>125700</v>
       </c>
       <c r="G52" s="3">
-        <v>60000</v>
+        <v>61300</v>
       </c>
       <c r="H52" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1855700</v>
+        <v>1894900</v>
       </c>
       <c r="E54" s="3">
-        <v>1334800</v>
+        <v>1363000</v>
       </c>
       <c r="F54" s="3">
-        <v>1115500</v>
+        <v>1139100</v>
       </c>
       <c r="G54" s="3">
-        <v>305100</v>
+        <v>311500</v>
       </c>
       <c r="H54" s="3">
-        <v>109200</v>
+        <v>111500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2274,8 +2274,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>1300</v>
@@ -2284,7 +2284,7 @@
         <v>2600</v>
       </c>
       <c r="G57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>242100</v>
+        <v>247200</v>
       </c>
       <c r="E58" s="3">
-        <v>351900</v>
+        <v>359300</v>
       </c>
       <c r="F58" s="3">
-        <v>172200</v>
+        <v>175900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>133300</v>
+        <v>135400</v>
       </c>
       <c r="E59" s="3">
-        <v>91300</v>
+        <v>93200</v>
       </c>
       <c r="F59" s="3">
-        <v>64400</v>
+        <v>65700</v>
       </c>
       <c r="G59" s="3">
-        <v>79000</v>
+        <v>80600</v>
       </c>
       <c r="H59" s="3">
-        <v>43100</v>
+        <v>44000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>375400</v>
+        <v>383400</v>
       </c>
       <c r="E60" s="3">
-        <v>444500</v>
+        <v>453900</v>
       </c>
       <c r="F60" s="3">
-        <v>239200</v>
+        <v>244200</v>
       </c>
       <c r="G60" s="3">
-        <v>80400</v>
+        <v>82100</v>
       </c>
       <c r="H60" s="3">
-        <v>43800</v>
+        <v>44800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>149400</v>
+        <v>152500</v>
       </c>
       <c r="E61" s="3">
-        <v>46100</v>
+        <v>47100</v>
       </c>
       <c r="F61" s="3">
-        <v>72200</v>
+        <v>73800</v>
       </c>
       <c r="G61" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="H61" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51300</v>
+        <v>52400</v>
       </c>
       <c r="E62" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
       </c>
       <c r="G62" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H62" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>576100</v>
+        <v>588300</v>
       </c>
       <c r="E66" s="3">
-        <v>497900</v>
+        <v>508400</v>
       </c>
       <c r="F66" s="3">
-        <v>313100</v>
+        <v>319700</v>
       </c>
       <c r="G66" s="3">
-        <v>116500</v>
+        <v>119000</v>
       </c>
       <c r="H66" s="3">
-        <v>79300</v>
+        <v>81000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>602200</v>
+        <v>615000</v>
       </c>
       <c r="H70" s="3">
-        <v>602200</v>
+        <v>615000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>604300</v>
+        <v>617100</v>
       </c>
       <c r="E72" s="3">
-        <v>130200</v>
+        <v>133000</v>
       </c>
       <c r="F72" s="3">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="G72" s="3">
-        <v>-414200</v>
+        <v>-423000</v>
       </c>
       <c r="H72" s="3">
-        <v>-573000</v>
+        <v>-585200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1279600</v>
+        <v>1306600</v>
       </c>
       <c r="E76" s="3">
-        <v>836900</v>
+        <v>854600</v>
       </c>
       <c r="F76" s="3">
-        <v>802400</v>
+        <v>819300</v>
       </c>
       <c r="G76" s="3">
-        <v>-413600</v>
+        <v>-422400</v>
       </c>
       <c r="H76" s="3">
-        <v>-572300</v>
+        <v>-584500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>514800</v>
+        <v>525700</v>
       </c>
       <c r="E81" s="3">
-        <v>59700</v>
+        <v>61000</v>
       </c>
       <c r="F81" s="3">
-        <v>46200</v>
+        <v>47200</v>
       </c>
       <c r="G81" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="H81" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3103,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
@@ -3319,20 +3319,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-97000</v>
       </c>
       <c r="E89" s="3">
-        <v>64600</v>
+        <v>66000</v>
       </c>
       <c r="F89" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="G89" s="3">
-        <v>90000</v>
+        <v>91900</v>
       </c>
       <c r="H89" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3371,11 +3371,11 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
         <v>-2200</v>
@@ -3479,20 +3479,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-77000</v>
       </c>
       <c r="E94" s="3">
-        <v>-183100</v>
+        <v>-187000</v>
       </c>
       <c r="F94" s="3">
-        <v>-250400</v>
+        <v>-255600</v>
       </c>
       <c r="G94" s="3">
-        <v>-24900</v>
+        <v>-25400</v>
       </c>
       <c r="H94" s="3">
-        <v>-41600</v>
+        <v>-42400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3532,13 +3532,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-41700</v>
       </c>
       <c r="E96" s="3">
-        <v>-39300</v>
+        <v>-40100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3675,20 +3675,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-59400</v>
       </c>
       <c r="E100" s="3">
-        <v>111600</v>
+        <v>114000</v>
       </c>
       <c r="F100" s="3">
-        <v>625000</v>
+        <v>638300</v>
       </c>
       <c r="G100" s="3">
-        <v>104800</v>
+        <v>107000</v>
       </c>
       <c r="H100" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3711,17 +3711,17 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-5600</v>
       </c>
       <c r="E101" s="3">
         <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="G101" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3747,17 +3747,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-239000</v>
       </c>
       <c r="E102" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="F102" s="3">
-        <v>419800</v>
+        <v>428700</v>
       </c>
       <c r="G102" s="3">
-        <v>166000</v>
+        <v>169500</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>320200</v>
+        <v>316000</v>
       </c>
       <c r="E8" s="3">
-        <v>224700</v>
+        <v>221700</v>
       </c>
       <c r="F8" s="3">
-        <v>170300</v>
+        <v>168100</v>
       </c>
       <c r="G8" s="3">
-        <v>164200</v>
+        <v>162000</v>
       </c>
       <c r="H8" s="3">
-        <v>67800</v>
+        <v>66900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>150700</v>
+        <v>148700</v>
       </c>
       <c r="E9" s="3">
-        <v>65900</v>
+        <v>65000</v>
       </c>
       <c r="F9" s="3">
-        <v>63800</v>
+        <v>63000</v>
       </c>
       <c r="G9" s="3">
-        <v>60200</v>
+        <v>59400</v>
       </c>
       <c r="H9" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>169500</v>
+        <v>167300</v>
       </c>
       <c r="E10" s="3">
-        <v>158800</v>
+        <v>156700</v>
       </c>
       <c r="F10" s="3">
-        <v>106500</v>
+        <v>105100</v>
       </c>
       <c r="G10" s="3">
-        <v>103900</v>
+        <v>102600</v>
       </c>
       <c r="H10" s="3">
-        <v>41200</v>
+        <v>40700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="F12" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G12" s="3">
         <v>3000</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>5300</v>
@@ -926,7 +926,7 @@
         <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>270500</v>
+        <v>267000</v>
       </c>
       <c r="E17" s="3">
-        <v>174200</v>
+        <v>172000</v>
       </c>
       <c r="F17" s="3">
-        <v>127100</v>
+        <v>125400</v>
       </c>
       <c r="G17" s="3">
-        <v>90800</v>
+        <v>89600</v>
       </c>
       <c r="H17" s="3">
-        <v>39000</v>
+        <v>38500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49700</v>
+        <v>49000</v>
       </c>
       <c r="E18" s="3">
-        <v>50400</v>
+        <v>49800</v>
       </c>
       <c r="F18" s="3">
-        <v>43200</v>
+        <v>42600</v>
       </c>
       <c r="G18" s="3">
-        <v>73300</v>
+        <v>72400</v>
       </c>
       <c r="H18" s="3">
-        <v>28800</v>
+        <v>28400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>534800</v>
+        <v>527800</v>
       </c>
       <c r="E20" s="3">
-        <v>27800</v>
+        <v>27400</v>
       </c>
       <c r="F20" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="G20" s="3">
         <v>1800</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>585900</v>
+        <v>578300</v>
       </c>
       <c r="E21" s="3">
-        <v>79800</v>
+        <v>78800</v>
       </c>
       <c r="F21" s="3">
-        <v>65900</v>
+        <v>65000</v>
       </c>
       <c r="G21" s="3">
-        <v>75600</v>
+        <v>74600</v>
       </c>
       <c r="H21" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1168,7 +1168,7 @@
         <v>2100</v>
       </c>
       <c r="F22" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G22" s="3">
         <v>2000</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>584000</v>
+        <v>576400</v>
       </c>
       <c r="E23" s="3">
-        <v>76100</v>
+        <v>75100</v>
       </c>
       <c r="F23" s="3">
-        <v>61800</v>
+        <v>61000</v>
       </c>
       <c r="G23" s="3">
-        <v>73100</v>
+        <v>72100</v>
       </c>
       <c r="H23" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57700</v>
+        <v>57000</v>
       </c>
       <c r="E24" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="F24" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="G24" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H24" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>526300</v>
+        <v>519400</v>
       </c>
       <c r="E26" s="3">
-        <v>63200</v>
+        <v>62300</v>
       </c>
       <c r="F26" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="G26" s="3">
-        <v>54500</v>
+        <v>53700</v>
       </c>
       <c r="H26" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>525700</v>
+        <v>518800</v>
       </c>
       <c r="E27" s="3">
-        <v>61000</v>
+        <v>60200</v>
       </c>
       <c r="F27" s="3">
-        <v>47200</v>
+        <v>46600</v>
       </c>
       <c r="G27" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="H27" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-534800</v>
+        <v>-527800</v>
       </c>
       <c r="E32" s="3">
-        <v>-27800</v>
+        <v>-27400</v>
       </c>
       <c r="F32" s="3">
-        <v>-21600</v>
+        <v>-21300</v>
       </c>
       <c r="G32" s="3">
         <v>-1800</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>525700</v>
+        <v>518800</v>
       </c>
       <c r="E33" s="3">
-        <v>61000</v>
+        <v>60200</v>
       </c>
       <c r="F33" s="3">
-        <v>47200</v>
+        <v>46600</v>
       </c>
       <c r="G33" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="H33" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>525700</v>
+        <v>518800</v>
       </c>
       <c r="E35" s="3">
-        <v>61000</v>
+        <v>60200</v>
       </c>
       <c r="F35" s="3">
-        <v>47200</v>
+        <v>46600</v>
       </c>
       <c r="G35" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="H35" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>222600</v>
+        <v>219700</v>
       </c>
       <c r="E41" s="3">
-        <v>312400</v>
+        <v>308300</v>
       </c>
       <c r="F41" s="3">
-        <v>454400</v>
+        <v>448500</v>
       </c>
       <c r="G41" s="3">
-        <v>125300</v>
+        <v>123700</v>
       </c>
       <c r="H41" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>677500</v>
+        <v>668600</v>
       </c>
       <c r="E42" s="3">
-        <v>93200</v>
+        <v>92000</v>
       </c>
       <c r="F42" s="3">
-        <v>41500</v>
+        <v>40900</v>
       </c>
       <c r="G42" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="H42" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>399900</v>
+        <v>394700</v>
       </c>
       <c r="E43" s="3">
-        <v>289600</v>
+        <v>285800</v>
       </c>
       <c r="F43" s="3">
-        <v>190300</v>
+        <v>187800</v>
       </c>
       <c r="G43" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="H43" s="3">
-        <v>21700</v>
+        <v>21400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88400</v>
+        <v>87200</v>
       </c>
       <c r="E45" s="3">
-        <v>169300</v>
+        <v>167100</v>
       </c>
       <c r="F45" s="3">
-        <v>55600</v>
+        <v>54900</v>
       </c>
       <c r="G45" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1388300</v>
+        <v>1370300</v>
       </c>
       <c r="E46" s="3">
-        <v>864400</v>
+        <v>853200</v>
       </c>
       <c r="F46" s="3">
-        <v>741800</v>
+        <v>732100</v>
       </c>
       <c r="G46" s="3">
-        <v>172900</v>
+        <v>170600</v>
       </c>
       <c r="H46" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>270800</v>
+        <v>267300</v>
       </c>
       <c r="E47" s="3">
-        <v>313300</v>
+        <v>309300</v>
       </c>
       <c r="F47" s="3">
-        <v>245900</v>
+        <v>242700</v>
       </c>
       <c r="G47" s="3">
-        <v>75600</v>
+        <v>74600</v>
       </c>
       <c r="H47" s="3">
-        <v>53600</v>
+        <v>52900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>2300</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="E49" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="F49" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>204500</v>
+        <v>201800</v>
       </c>
       <c r="E52" s="3">
-        <v>153300</v>
+        <v>151300</v>
       </c>
       <c r="F52" s="3">
-        <v>125700</v>
+        <v>124000</v>
       </c>
       <c r="G52" s="3">
-        <v>61300</v>
+        <v>60500</v>
       </c>
       <c r="H52" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1894900</v>
+        <v>1870200</v>
       </c>
       <c r="E54" s="3">
-        <v>1363000</v>
+        <v>1345300</v>
       </c>
       <c r="F54" s="3">
-        <v>1139100</v>
+        <v>1124200</v>
       </c>
       <c r="G54" s="3">
-        <v>311500</v>
+        <v>307500</v>
       </c>
       <c r="H54" s="3">
-        <v>111500</v>
+        <v>110100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>2600</v>
       </c>
       <c r="G57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>247200</v>
+        <v>244000</v>
       </c>
       <c r="E58" s="3">
-        <v>359300</v>
+        <v>354600</v>
       </c>
       <c r="F58" s="3">
-        <v>175900</v>
+        <v>173600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>135400</v>
+        <v>133600</v>
       </c>
       <c r="E59" s="3">
-        <v>93200</v>
+        <v>92000</v>
       </c>
       <c r="F59" s="3">
-        <v>65700</v>
+        <v>64900</v>
       </c>
       <c r="G59" s="3">
-        <v>80600</v>
+        <v>79600</v>
       </c>
       <c r="H59" s="3">
-        <v>44000</v>
+        <v>43400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>383400</v>
+        <v>378400</v>
       </c>
       <c r="E60" s="3">
-        <v>453900</v>
+        <v>447900</v>
       </c>
       <c r="F60" s="3">
-        <v>244200</v>
+        <v>241000</v>
       </c>
       <c r="G60" s="3">
-        <v>82100</v>
+        <v>81000</v>
       </c>
       <c r="H60" s="3">
-        <v>44800</v>
+        <v>44200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>152500</v>
+        <v>150600</v>
       </c>
       <c r="E61" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="F61" s="3">
-        <v>73800</v>
+        <v>72800</v>
       </c>
       <c r="G61" s="3">
-        <v>27300</v>
+        <v>26900</v>
       </c>
       <c r="H61" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>52400</v>
+        <v>51700</v>
       </c>
       <c r="E62" s="3">
         <v>5300</v>
@@ -2467,7 +2467,7 @@
         <v>5500</v>
       </c>
       <c r="H62" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>588300</v>
+        <v>580600</v>
       </c>
       <c r="E66" s="3">
-        <v>508400</v>
+        <v>501800</v>
       </c>
       <c r="F66" s="3">
-        <v>319700</v>
+        <v>315600</v>
       </c>
       <c r="G66" s="3">
-        <v>119000</v>
+        <v>117400</v>
       </c>
       <c r="H66" s="3">
-        <v>81000</v>
+        <v>79900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>615000</v>
+        <v>607000</v>
       </c>
       <c r="H70" s="3">
-        <v>615000</v>
+        <v>607000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>617100</v>
+        <v>609000</v>
       </c>
       <c r="E72" s="3">
-        <v>133000</v>
+        <v>131300</v>
       </c>
       <c r="F72" s="3">
-        <v>108900</v>
+        <v>107500</v>
       </c>
       <c r="G72" s="3">
-        <v>-423000</v>
+        <v>-417500</v>
       </c>
       <c r="H72" s="3">
-        <v>-585200</v>
+        <v>-577500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1306600</v>
+        <v>1289600</v>
       </c>
       <c r="E76" s="3">
-        <v>854600</v>
+        <v>843500</v>
       </c>
       <c r="F76" s="3">
-        <v>819300</v>
+        <v>808700</v>
       </c>
       <c r="G76" s="3">
-        <v>-422400</v>
+        <v>-417000</v>
       </c>
       <c r="H76" s="3">
-        <v>-584500</v>
+        <v>-576900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>525700</v>
+        <v>518800</v>
       </c>
       <c r="E81" s="3">
-        <v>61000</v>
+        <v>60200</v>
       </c>
       <c r="F81" s="3">
-        <v>47200</v>
+        <v>46600</v>
       </c>
       <c r="G81" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="H81" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-97000</v>
+        <v>-95700</v>
       </c>
       <c r="E89" s="3">
-        <v>66000</v>
+        <v>65100</v>
       </c>
       <c r="F89" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="G89" s="3">
-        <v>91900</v>
+        <v>90700</v>
       </c>
       <c r="H89" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3375,7 +3375,7 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="F91" s="3">
         <v>-2200</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-77000</v>
+        <v>-76000</v>
       </c>
       <c r="E94" s="3">
-        <v>-187000</v>
+        <v>-184500</v>
       </c>
       <c r="F94" s="3">
-        <v>-255600</v>
+        <v>-252300</v>
       </c>
       <c r="G94" s="3">
-        <v>-25400</v>
+        <v>-25100</v>
       </c>
       <c r="H94" s="3">
-        <v>-42400</v>
+        <v>-41900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3532,10 +3532,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41700</v>
+        <v>-41100</v>
       </c>
       <c r="E96" s="3">
-        <v>-40100</v>
+        <v>-39600</v>
       </c>
       <c r="F96" s="3">
         <v>-4200</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-59400</v>
+        <v>-58600</v>
       </c>
       <c r="E100" s="3">
-        <v>114000</v>
+        <v>112500</v>
       </c>
       <c r="F100" s="3">
-        <v>638300</v>
+        <v>630000</v>
       </c>
       <c r="G100" s="3">
-        <v>107000</v>
+        <v>105600</v>
       </c>
       <c r="H100" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3718,10 +3718,10 @@
         <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="G101" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-239000</v>
+        <v>-235900</v>
       </c>
       <c r="E102" s="3">
         <v>-5200</v>
       </c>
       <c r="F102" s="3">
-        <v>428700</v>
+        <v>423100</v>
       </c>
       <c r="G102" s="3">
-        <v>169500</v>
+        <v>167300</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>316000</v>
+        <v>321300</v>
       </c>
       <c r="E8" s="3">
-        <v>221700</v>
+        <v>225500</v>
       </c>
       <c r="F8" s="3">
-        <v>168100</v>
+        <v>170900</v>
       </c>
       <c r="G8" s="3">
-        <v>162000</v>
+        <v>164700</v>
       </c>
       <c r="H8" s="3">
-        <v>66900</v>
+        <v>68000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>148700</v>
+        <v>151200</v>
       </c>
       <c r="E9" s="3">
-        <v>65000</v>
+        <v>66100</v>
       </c>
       <c r="F9" s="3">
-        <v>63000</v>
+        <v>64000</v>
       </c>
       <c r="G9" s="3">
-        <v>59400</v>
+        <v>60400</v>
       </c>
       <c r="H9" s="3">
-        <v>26200</v>
+        <v>26600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>167300</v>
+        <v>170100</v>
       </c>
       <c r="E10" s="3">
-        <v>156700</v>
+        <v>159300</v>
       </c>
       <c r="F10" s="3">
-        <v>105100</v>
+        <v>106900</v>
       </c>
       <c r="G10" s="3">
-        <v>102600</v>
+        <v>104300</v>
       </c>
       <c r="H10" s="3">
-        <v>40700</v>
+        <v>41400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="F12" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G12" s="3">
         <v>3000</v>
@@ -917,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F14" s="3">
         <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>267000</v>
+        <v>271500</v>
       </c>
       <c r="E17" s="3">
-        <v>172000</v>
+        <v>174800</v>
       </c>
       <c r="F17" s="3">
-        <v>125400</v>
+        <v>127500</v>
       </c>
       <c r="G17" s="3">
-        <v>89600</v>
+        <v>91100</v>
       </c>
       <c r="H17" s="3">
-        <v>38500</v>
+        <v>39100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="E18" s="3">
-        <v>49800</v>
+        <v>50600</v>
       </c>
       <c r="F18" s="3">
-        <v>42600</v>
+        <v>43300</v>
       </c>
       <c r="G18" s="3">
-        <v>72400</v>
+        <v>73600</v>
       </c>
       <c r="H18" s="3">
-        <v>28400</v>
+        <v>28900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>527800</v>
+        <v>536600</v>
       </c>
       <c r="E20" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="F20" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="G20" s="3">
         <v>1800</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>578300</v>
+        <v>588000</v>
       </c>
       <c r="E21" s="3">
-        <v>78800</v>
+        <v>80100</v>
       </c>
       <c r="F21" s="3">
-        <v>65000</v>
+        <v>66100</v>
       </c>
       <c r="G21" s="3">
-        <v>74600</v>
+        <v>75800</v>
       </c>
       <c r="H21" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1168,7 +1168,7 @@
         <v>2100</v>
       </c>
       <c r="F22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="3">
         <v>2000</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>576400</v>
+        <v>586000</v>
       </c>
       <c r="E23" s="3">
-        <v>75100</v>
+        <v>76400</v>
       </c>
       <c r="F23" s="3">
-        <v>61000</v>
+        <v>62000</v>
       </c>
       <c r="G23" s="3">
-        <v>72100</v>
+        <v>73300</v>
       </c>
       <c r="H23" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57000</v>
+        <v>57900</v>
       </c>
       <c r="E24" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="F24" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="G24" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="H24" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>519400</v>
+        <v>528100</v>
       </c>
       <c r="E26" s="3">
-        <v>62300</v>
+        <v>63400</v>
       </c>
       <c r="F26" s="3">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="G26" s="3">
-        <v>53700</v>
+        <v>54600</v>
       </c>
       <c r="H26" s="3">
-        <v>20600</v>
+        <v>20900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>518800</v>
+        <v>527500</v>
       </c>
       <c r="E27" s="3">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="F27" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="G27" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="H27" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-527800</v>
+        <v>-536600</v>
       </c>
       <c r="E32" s="3">
-        <v>-27400</v>
+        <v>-27900</v>
       </c>
       <c r="F32" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="G32" s="3">
         <v>-1800</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>518800</v>
+        <v>527500</v>
       </c>
       <c r="E33" s="3">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="F33" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="G33" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="H33" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>518800</v>
+        <v>527500</v>
       </c>
       <c r="E35" s="3">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="F35" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="G35" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="H35" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>219700</v>
+        <v>223400</v>
       </c>
       <c r="E41" s="3">
-        <v>308300</v>
+        <v>313500</v>
       </c>
       <c r="F41" s="3">
-        <v>448500</v>
+        <v>456000</v>
       </c>
       <c r="G41" s="3">
-        <v>123700</v>
+        <v>125800</v>
       </c>
       <c r="H41" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>668600</v>
+        <v>679800</v>
       </c>
       <c r="E42" s="3">
-        <v>92000</v>
+        <v>93500</v>
       </c>
       <c r="F42" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="G42" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="H42" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>394700</v>
+        <v>401300</v>
       </c>
       <c r="E43" s="3">
-        <v>285800</v>
+        <v>290600</v>
       </c>
       <c r="F43" s="3">
-        <v>187800</v>
+        <v>190900</v>
       </c>
       <c r="G43" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="H43" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>87200</v>
+        <v>88700</v>
       </c>
       <c r="E45" s="3">
-        <v>167100</v>
+        <v>169900</v>
       </c>
       <c r="F45" s="3">
-        <v>54900</v>
+        <v>55800</v>
       </c>
       <c r="G45" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1370300</v>
+        <v>1393200</v>
       </c>
       <c r="E46" s="3">
-        <v>853200</v>
+        <v>867500</v>
       </c>
       <c r="F46" s="3">
-        <v>732100</v>
+        <v>744400</v>
       </c>
       <c r="G46" s="3">
-        <v>170600</v>
+        <v>173500</v>
       </c>
       <c r="H46" s="3">
-        <v>46500</v>
+        <v>47300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>267300</v>
+        <v>271800</v>
       </c>
       <c r="E47" s="3">
-        <v>309300</v>
+        <v>314500</v>
       </c>
       <c r="F47" s="3">
-        <v>242700</v>
+        <v>246700</v>
       </c>
       <c r="G47" s="3">
-        <v>74600</v>
+        <v>75800</v>
       </c>
       <c r="H47" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1997,7 +1997,7 @@
         <v>2300</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="E49" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="F49" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>201800</v>
+        <v>205200</v>
       </c>
       <c r="E52" s="3">
-        <v>151300</v>
+        <v>153900</v>
       </c>
       <c r="F52" s="3">
-        <v>124000</v>
+        <v>126100</v>
       </c>
       <c r="G52" s="3">
-        <v>60500</v>
+        <v>61500</v>
       </c>
       <c r="H52" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1870200</v>
+        <v>1901600</v>
       </c>
       <c r="E54" s="3">
-        <v>1345300</v>
+        <v>1367800</v>
       </c>
       <c r="F54" s="3">
-        <v>1124200</v>
+        <v>1143100</v>
       </c>
       <c r="G54" s="3">
-        <v>307500</v>
+        <v>312600</v>
       </c>
       <c r="H54" s="3">
-        <v>110100</v>
+        <v>111900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>2600</v>
       </c>
       <c r="G57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>244000</v>
+        <v>248100</v>
       </c>
       <c r="E58" s="3">
-        <v>354600</v>
+        <v>360600</v>
       </c>
       <c r="F58" s="3">
-        <v>173600</v>
+        <v>176500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>133600</v>
+        <v>135800</v>
       </c>
       <c r="E59" s="3">
-        <v>92000</v>
+        <v>93600</v>
       </c>
       <c r="F59" s="3">
-        <v>64900</v>
+        <v>66000</v>
       </c>
       <c r="G59" s="3">
-        <v>79600</v>
+        <v>80900</v>
       </c>
       <c r="H59" s="3">
-        <v>43400</v>
+        <v>44100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>378400</v>
+        <v>384700</v>
       </c>
       <c r="E60" s="3">
-        <v>447900</v>
+        <v>455500</v>
       </c>
       <c r="F60" s="3">
-        <v>241000</v>
+        <v>245100</v>
       </c>
       <c r="G60" s="3">
-        <v>81000</v>
+        <v>82400</v>
       </c>
       <c r="H60" s="3">
-        <v>44200</v>
+        <v>44900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>150600</v>
+        <v>153100</v>
       </c>
       <c r="E61" s="3">
-        <v>46500</v>
+        <v>47200</v>
       </c>
       <c r="F61" s="3">
-        <v>72800</v>
+        <v>74000</v>
       </c>
       <c r="G61" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="H61" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51700</v>
+        <v>52500</v>
       </c>
       <c r="E62" s="3">
         <v>5300</v>
@@ -2464,10 +2464,10 @@
         <v>1200</v>
       </c>
       <c r="G62" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H62" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>580600</v>
+        <v>590300</v>
       </c>
       <c r="E66" s="3">
-        <v>501800</v>
+        <v>510200</v>
       </c>
       <c r="F66" s="3">
-        <v>315600</v>
+        <v>320800</v>
       </c>
       <c r="G66" s="3">
-        <v>117400</v>
+        <v>119400</v>
       </c>
       <c r="H66" s="3">
-        <v>79900</v>
+        <v>81300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>607000</v>
+        <v>617100</v>
       </c>
       <c r="H70" s="3">
-        <v>607000</v>
+        <v>617100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>609000</v>
+        <v>619300</v>
       </c>
       <c r="E72" s="3">
-        <v>131300</v>
+        <v>133500</v>
       </c>
       <c r="F72" s="3">
-        <v>107500</v>
+        <v>109300</v>
       </c>
       <c r="G72" s="3">
-        <v>-417500</v>
+        <v>-424500</v>
       </c>
       <c r="H72" s="3">
-        <v>-577500</v>
+        <v>-587200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1289600</v>
+        <v>1311200</v>
       </c>
       <c r="E76" s="3">
-        <v>843500</v>
+        <v>857600</v>
       </c>
       <c r="F76" s="3">
-        <v>808700</v>
+        <v>822200</v>
       </c>
       <c r="G76" s="3">
-        <v>-417000</v>
+        <v>-423900</v>
       </c>
       <c r="H76" s="3">
-        <v>-576900</v>
+        <v>-586400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>518800</v>
+        <v>527500</v>
       </c>
       <c r="E81" s="3">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="F81" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="G81" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="H81" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-95700</v>
+        <v>-97300</v>
       </c>
       <c r="E89" s="3">
-        <v>65100</v>
+        <v>66200</v>
       </c>
       <c r="F89" s="3">
-        <v>28500</v>
+        <v>28900</v>
       </c>
       <c r="G89" s="3">
-        <v>90700</v>
+        <v>92300</v>
       </c>
       <c r="H89" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3375,10 +3375,10 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
         <v>-1500</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76000</v>
+        <v>-77300</v>
       </c>
       <c r="E94" s="3">
-        <v>-184500</v>
+        <v>-187600</v>
       </c>
       <c r="F94" s="3">
-        <v>-252300</v>
+        <v>-256500</v>
       </c>
       <c r="G94" s="3">
-        <v>-25100</v>
+        <v>-25500</v>
       </c>
       <c r="H94" s="3">
-        <v>-41900</v>
+        <v>-42600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3532,10 +3532,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41100</v>
+        <v>-41800</v>
       </c>
       <c r="E96" s="3">
-        <v>-39600</v>
+        <v>-40300</v>
       </c>
       <c r="F96" s="3">
         <v>-4200</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58600</v>
+        <v>-59600</v>
       </c>
       <c r="E100" s="3">
-        <v>112500</v>
+        <v>114400</v>
       </c>
       <c r="F100" s="3">
-        <v>630000</v>
+        <v>640500</v>
       </c>
       <c r="G100" s="3">
-        <v>105600</v>
+        <v>107400</v>
       </c>
       <c r="H100" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E101" s="3">
         <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="G101" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-235900</v>
+        <v>-239900</v>
       </c>
       <c r="E102" s="3">
         <v>-5200</v>
       </c>
       <c r="F102" s="3">
-        <v>423100</v>
+        <v>430200</v>
       </c>
       <c r="G102" s="3">
-        <v>167300</v>
+        <v>170100</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +714,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>321300</v>
+        <v>618700</v>
       </c>
       <c r="E8" s="3">
-        <v>225500</v>
+        <v>323800</v>
       </c>
       <c r="F8" s="3">
-        <v>170900</v>
+        <v>227200</v>
       </c>
       <c r="G8" s="3">
-        <v>164700</v>
+        <v>172200</v>
       </c>
       <c r="H8" s="3">
-        <v>68000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>166000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>68500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,29 +753,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>151200</v>
+        <v>466700</v>
       </c>
       <c r="E9" s="3">
-        <v>66100</v>
+        <v>152400</v>
       </c>
       <c r="F9" s="3">
-        <v>64000</v>
+        <v>66600</v>
       </c>
       <c r="G9" s="3">
-        <v>60400</v>
+        <v>64500</v>
       </c>
       <c r="H9" s="3">
-        <v>26600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>60900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>26800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -786,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>170100</v>
+        <v>152000</v>
       </c>
       <c r="E10" s="3">
-        <v>159300</v>
+        <v>171400</v>
       </c>
       <c r="F10" s="3">
-        <v>106900</v>
+        <v>160600</v>
       </c>
       <c r="G10" s="3">
-        <v>104300</v>
+        <v>107700</v>
       </c>
       <c r="H10" s="3">
-        <v>41400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>105100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>41700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,29 +851,30 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9800</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>9900</v>
       </c>
       <c r="F12" s="3">
-        <v>7300</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="3">
-        <v>3000</v>
+        <v>7400</v>
       </c>
       <c r="H12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,30 +926,33 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-6100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>271500</v>
+        <v>622400</v>
       </c>
       <c r="E17" s="3">
-        <v>174800</v>
+        <v>273600</v>
       </c>
       <c r="F17" s="3">
-        <v>127500</v>
+        <v>176200</v>
       </c>
       <c r="G17" s="3">
-        <v>91100</v>
+        <v>128500</v>
       </c>
       <c r="H17" s="3">
-        <v>39100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>91800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>39400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,29 +1057,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49800</v>
+        <v>-3700</v>
       </c>
       <c r="E18" s="3">
-        <v>50600</v>
+        <v>50200</v>
       </c>
       <c r="F18" s="3">
-        <v>43300</v>
+        <v>51000</v>
       </c>
       <c r="G18" s="3">
-        <v>73600</v>
+        <v>43700</v>
       </c>
       <c r="H18" s="3">
-        <v>28900</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>74200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>29100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,29 +1116,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>536600</v>
+        <v>7900</v>
       </c>
       <c r="E20" s="3">
-        <v>27900</v>
+        <v>540800</v>
       </c>
       <c r="F20" s="3">
-        <v>21700</v>
+        <v>28100</v>
       </c>
       <c r="G20" s="3">
+        <v>21800</v>
+      </c>
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,26 +1152,29 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>588000</v>
+        <v>5700</v>
       </c>
       <c r="E21" s="3">
-        <v>80100</v>
+        <v>592600</v>
       </c>
       <c r="F21" s="3">
-        <v>66100</v>
+        <v>80200</v>
       </c>
       <c r="G21" s="3">
-        <v>75800</v>
+        <v>65900</v>
       </c>
       <c r="H21" s="3">
-        <v>29500</v>
+        <v>76200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1155,30 +1191,33 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,29 +1230,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>586000</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
-        <v>76400</v>
+        <v>590500</v>
       </c>
       <c r="F23" s="3">
-        <v>62000</v>
+        <v>77000</v>
       </c>
       <c r="G23" s="3">
-        <v>73300</v>
+        <v>62500</v>
       </c>
       <c r="H23" s="3">
-        <v>29200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>73900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>29400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1269,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57900</v>
+        <v>3300</v>
       </c>
       <c r="E24" s="3">
-        <v>13000</v>
+        <v>58300</v>
       </c>
       <c r="F24" s="3">
-        <v>13900</v>
+        <v>13100</v>
       </c>
       <c r="G24" s="3">
-        <v>18700</v>
+        <v>14100</v>
       </c>
       <c r="H24" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8400</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>528100</v>
+        <v>-1300</v>
       </c>
       <c r="E26" s="3">
-        <v>63400</v>
+        <v>532200</v>
       </c>
       <c r="F26" s="3">
-        <v>48100</v>
+        <v>63900</v>
       </c>
       <c r="G26" s="3">
-        <v>54600</v>
+        <v>48400</v>
       </c>
       <c r="H26" s="3">
-        <v>20900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>55100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>21100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,29 +1386,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>527500</v>
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
-        <v>61200</v>
+        <v>531600</v>
       </c>
       <c r="F27" s="3">
-        <v>47400</v>
+        <v>61700</v>
       </c>
       <c r="G27" s="3">
-        <v>26800</v>
+        <v>47800</v>
       </c>
       <c r="H27" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>27100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,30 +1581,33 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-536600</v>
+        <v>-7900</v>
       </c>
       <c r="E32" s="3">
-        <v>-27900</v>
+        <v>-540800</v>
       </c>
       <c r="F32" s="3">
-        <v>-21700</v>
+        <v>-28100</v>
       </c>
       <c r="G32" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,29 +1620,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>527500</v>
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
-        <v>61200</v>
+        <v>531600</v>
       </c>
       <c r="F33" s="3">
-        <v>47400</v>
+        <v>61700</v>
       </c>
       <c r="G33" s="3">
-        <v>26800</v>
+        <v>47800</v>
       </c>
       <c r="H33" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>27100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,29 +1698,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>527500</v>
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
-        <v>61200</v>
+        <v>531600</v>
       </c>
       <c r="F35" s="3">
-        <v>47400</v>
+        <v>61700</v>
       </c>
       <c r="G35" s="3">
-        <v>26800</v>
+        <v>47800</v>
       </c>
       <c r="H35" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>27100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>223400</v>
+        <v>226400</v>
       </c>
       <c r="E41" s="3">
-        <v>313500</v>
+        <v>225100</v>
       </c>
       <c r="F41" s="3">
-        <v>456000</v>
+        <v>315900</v>
       </c>
       <c r="G41" s="3">
-        <v>125800</v>
+        <v>459500</v>
       </c>
       <c r="H41" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>126700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,29 +1854,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>679800</v>
+        <v>410000</v>
       </c>
       <c r="E42" s="3">
-        <v>93500</v>
+        <v>685100</v>
       </c>
       <c r="F42" s="3">
-        <v>41600</v>
+        <v>94200</v>
       </c>
       <c r="G42" s="3">
+        <v>41900</v>
+      </c>
+      <c r="H42" s="3">
         <v>9800</v>
       </c>
-      <c r="H42" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>16700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1804,29 +1893,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>401300</v>
+        <v>399100</v>
       </c>
       <c r="E43" s="3">
-        <v>290600</v>
+        <v>404400</v>
       </c>
       <c r="F43" s="3">
-        <v>190900</v>
+        <v>292800</v>
       </c>
       <c r="G43" s="3">
-        <v>24300</v>
+        <v>192400</v>
       </c>
       <c r="H43" s="3">
-        <v>21800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>24500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>21900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,30 +1971,33 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88700</v>
+        <v>164700</v>
       </c>
       <c r="E45" s="3">
-        <v>169900</v>
+        <v>89400</v>
       </c>
       <c r="F45" s="3">
-        <v>55800</v>
+        <v>171200</v>
       </c>
       <c r="G45" s="3">
-        <v>13700</v>
+        <v>56200</v>
       </c>
       <c r="H45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1393200</v>
+        <v>1200200</v>
       </c>
       <c r="E46" s="3">
-        <v>867500</v>
+        <v>1403900</v>
       </c>
       <c r="F46" s="3">
-        <v>744400</v>
+        <v>874100</v>
       </c>
       <c r="G46" s="3">
-        <v>173500</v>
+        <v>750100</v>
       </c>
       <c r="H46" s="3">
-        <v>47300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>174800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>47700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,29 +2049,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>271800</v>
+        <v>240500</v>
       </c>
       <c r="E47" s="3">
-        <v>314500</v>
+        <v>273900</v>
       </c>
       <c r="F47" s="3">
-        <v>246700</v>
+        <v>316900</v>
       </c>
       <c r="G47" s="3">
-        <v>75800</v>
+        <v>248600</v>
       </c>
       <c r="H47" s="3">
-        <v>53800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>76400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>54200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1984,30 +2088,33 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,30 +2127,33 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29700</v>
+        <v>30700</v>
       </c>
       <c r="E49" s="3">
-        <v>29700</v>
+        <v>30000</v>
       </c>
       <c r="F49" s="3">
-        <v>23000</v>
+        <v>29900</v>
       </c>
       <c r="G49" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,29 +2244,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>205200</v>
+        <v>252500</v>
       </c>
       <c r="E52" s="3">
-        <v>153900</v>
+        <v>206800</v>
       </c>
       <c r="F52" s="3">
-        <v>126100</v>
+        <v>155000</v>
       </c>
       <c r="G52" s="3">
-        <v>61500</v>
+        <v>127100</v>
       </c>
       <c r="H52" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>62000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>10200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1901600</v>
+        <v>1727000</v>
       </c>
       <c r="E54" s="3">
-        <v>1367800</v>
+        <v>1916100</v>
       </c>
       <c r="F54" s="3">
-        <v>1143100</v>
+        <v>1378300</v>
       </c>
       <c r="G54" s="3">
-        <v>312600</v>
+        <v>1151800</v>
       </c>
       <c r="H54" s="3">
-        <v>111900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>315000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>112800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,29 +2398,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
-        <v>2600</v>
-      </c>
       <c r="G57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>248100</v>
+        <v>239400</v>
       </c>
       <c r="E58" s="3">
-        <v>360600</v>
+        <v>250000</v>
       </c>
       <c r="F58" s="3">
-        <v>176500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>363300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>177800</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2337,32 +2470,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>135800</v>
+        <v>299700</v>
       </c>
       <c r="E59" s="3">
-        <v>93600</v>
+        <v>136900</v>
       </c>
       <c r="F59" s="3">
-        <v>66000</v>
+        <v>94300</v>
       </c>
       <c r="G59" s="3">
-        <v>80900</v>
+        <v>66500</v>
       </c>
       <c r="H59" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>44500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>384700</v>
+        <v>539200</v>
       </c>
       <c r="E60" s="3">
-        <v>455500</v>
+        <v>387700</v>
       </c>
       <c r="F60" s="3">
-        <v>245100</v>
+        <v>458900</v>
       </c>
       <c r="G60" s="3">
-        <v>82400</v>
+        <v>247000</v>
       </c>
       <c r="H60" s="3">
-        <v>44900</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>83000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>45300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,29 +2551,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>153100</v>
+        <v>76700</v>
       </c>
       <c r="E61" s="3">
-        <v>47200</v>
+        <v>154300</v>
       </c>
       <c r="F61" s="3">
-        <v>74000</v>
+        <v>47600</v>
       </c>
       <c r="G61" s="3">
-        <v>27400</v>
+        <v>74600</v>
       </c>
       <c r="H61" s="3">
-        <v>29700</v>
+        <v>27600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,30 +2590,33 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>52500</v>
+        <v>8300</v>
       </c>
       <c r="E62" s="3">
-        <v>5300</v>
+        <v>52900</v>
       </c>
       <c r="F62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>590300</v>
+        <v>624200</v>
       </c>
       <c r="E66" s="3">
-        <v>510200</v>
+        <v>594900</v>
       </c>
       <c r="F66" s="3">
-        <v>320800</v>
+        <v>514100</v>
       </c>
       <c r="G66" s="3">
-        <v>119400</v>
+        <v>323300</v>
       </c>
       <c r="H66" s="3">
-        <v>81300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>120300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>81900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>617100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>617100</v>
+        <v>621900</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>621900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>619300</v>
+        <v>471900</v>
       </c>
       <c r="E72" s="3">
-        <v>133500</v>
+        <v>624000</v>
       </c>
       <c r="F72" s="3">
-        <v>109300</v>
+        <v>134500</v>
       </c>
       <c r="G72" s="3">
-        <v>-424500</v>
+        <v>110100</v>
       </c>
       <c r="H72" s="3">
-        <v>-587200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-427800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-591700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1311200</v>
+        <v>1102800</v>
       </c>
       <c r="E76" s="3">
-        <v>857600</v>
+        <v>1321300</v>
       </c>
       <c r="F76" s="3">
-        <v>822200</v>
+        <v>864200</v>
       </c>
       <c r="G76" s="3">
-        <v>-423900</v>
+        <v>828500</v>
       </c>
       <c r="H76" s="3">
-        <v>-586400</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-427200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-591000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,29 +3236,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>527500</v>
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
-        <v>61200</v>
+        <v>531600</v>
       </c>
       <c r="F81" s="3">
-        <v>47400</v>
+        <v>61700</v>
       </c>
       <c r="G81" s="3">
-        <v>26800</v>
+        <v>47800</v>
       </c>
       <c r="H81" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>27100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>10200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,29 +3295,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
-        <v>1600</v>
-      </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-97300</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>66200</v>
+        <v>-98100</v>
       </c>
       <c r="F89" s="3">
-        <v>28900</v>
+        <v>66700</v>
       </c>
       <c r="G89" s="3">
-        <v>92300</v>
+        <v>29200</v>
       </c>
       <c r="H89" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>93000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>13100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,29 +3585,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-6700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-77300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-187600</v>
+        <v>-77900</v>
       </c>
       <c r="F94" s="3">
-        <v>-256500</v>
+        <v>-189100</v>
       </c>
       <c r="G94" s="3">
-        <v>-25500</v>
+        <v>-258500</v>
       </c>
       <c r="H94" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-25700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-42900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,29 +3758,30 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-40300</v>
+        <v>-42200</v>
       </c>
       <c r="F96" s="3">
-        <v>-4200</v>
+        <v>-40600</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-59600</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>114400</v>
+        <v>-60100</v>
       </c>
       <c r="F100" s="3">
-        <v>640500</v>
+        <v>115300</v>
       </c>
       <c r="G100" s="3">
-        <v>107400</v>
+        <v>645400</v>
       </c>
       <c r="H100" s="3">
-        <v>29300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>108200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>29500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,29 +3950,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>17300</v>
-      </c>
       <c r="G101" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3741,30 +3989,33 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-239900</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-5200</v>
+        <v>-241700</v>
       </c>
       <c r="F102" s="3">
-        <v>430200</v>
+        <v>-5300</v>
       </c>
       <c r="G102" s="3">
-        <v>170100</v>
+        <v>433500</v>
       </c>
       <c r="H102" s="3">
+        <v>171400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>CANG</t>
   </si>
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>618700</v>
+        <v>577900</v>
       </c>
       <c r="E8" s="3">
-        <v>323800</v>
+        <v>302400</v>
       </c>
       <c r="F8" s="3">
-        <v>227200</v>
+        <v>212200</v>
       </c>
       <c r="G8" s="3">
-        <v>172200</v>
+        <v>160800</v>
       </c>
       <c r="H8" s="3">
-        <v>166000</v>
+        <v>155100</v>
       </c>
       <c r="I8" s="3">
-        <v>68500</v>
+        <v>64000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>466700</v>
+        <v>418300</v>
       </c>
       <c r="E9" s="3">
-        <v>152400</v>
+        <v>142300</v>
       </c>
       <c r="F9" s="3">
-        <v>66600</v>
+        <v>62200</v>
       </c>
       <c r="G9" s="3">
-        <v>64500</v>
+        <v>60200</v>
       </c>
       <c r="H9" s="3">
-        <v>60900</v>
+        <v>56900</v>
       </c>
       <c r="I9" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>152000</v>
+        <v>159600</v>
       </c>
       <c r="E10" s="3">
-        <v>171400</v>
+        <v>160100</v>
       </c>
       <c r="F10" s="3">
-        <v>160600</v>
+        <v>150000</v>
       </c>
       <c r="G10" s="3">
-        <v>107700</v>
+        <v>100600</v>
       </c>
       <c r="H10" s="3">
-        <v>105100</v>
+        <v>98200</v>
       </c>
       <c r="I10" s="3">
-        <v>41700</v>
+        <v>38900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="G12" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="H12" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -936,19 +936,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>31200</v>
+        <v>29100</v>
       </c>
       <c r="E14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="G14" s="3">
         <v>-100</v>
       </c>
       <c r="H14" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>622400</v>
+        <v>581300</v>
       </c>
       <c r="E17" s="3">
-        <v>273600</v>
+        <v>255500</v>
       </c>
       <c r="F17" s="3">
-        <v>176200</v>
+        <v>164600</v>
       </c>
       <c r="G17" s="3">
-        <v>128500</v>
+        <v>120100</v>
       </c>
       <c r="H17" s="3">
-        <v>91800</v>
+        <v>85800</v>
       </c>
       <c r="I17" s="3">
-        <v>39400</v>
+        <v>36800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="E18" s="3">
-        <v>50200</v>
+        <v>46900</v>
       </c>
       <c r="F18" s="3">
-        <v>51000</v>
+        <v>47600</v>
       </c>
       <c r="G18" s="3">
-        <v>43700</v>
+        <v>40800</v>
       </c>
       <c r="H18" s="3">
-        <v>74200</v>
+        <v>69300</v>
       </c>
       <c r="I18" s="3">
-        <v>29100</v>
+        <v>27200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E20" s="3">
-        <v>540800</v>
+        <v>505100</v>
       </c>
       <c r="F20" s="3">
-        <v>28100</v>
+        <v>26200</v>
       </c>
       <c r="G20" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="H20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="E21" s="3">
-        <v>592600</v>
+        <v>553400</v>
       </c>
       <c r="F21" s="3">
-        <v>80200</v>
+        <v>75400</v>
       </c>
       <c r="G21" s="3">
-        <v>65900</v>
+        <v>62200</v>
       </c>
       <c r="H21" s="3">
-        <v>76200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>71400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>27800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E23" s="3">
-        <v>590500</v>
+        <v>551600</v>
       </c>
       <c r="F23" s="3">
-        <v>77000</v>
+        <v>71900</v>
       </c>
       <c r="G23" s="3">
-        <v>62500</v>
+        <v>58400</v>
       </c>
       <c r="H23" s="3">
-        <v>73900</v>
+        <v>69000</v>
       </c>
       <c r="I23" s="3">
-        <v>29400</v>
+        <v>27500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E24" s="3">
-        <v>58300</v>
+        <v>54500</v>
       </c>
       <c r="F24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G24" s="3">
         <v>13100</v>
       </c>
-      <c r="G24" s="3">
-        <v>14100</v>
-      </c>
       <c r="H24" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="I24" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1360,19 +1360,19 @@
         <v>-1300</v>
       </c>
       <c r="E26" s="3">
-        <v>532200</v>
+        <v>497100</v>
       </c>
       <c r="F26" s="3">
-        <v>63900</v>
+        <v>59700</v>
       </c>
       <c r="G26" s="3">
-        <v>48400</v>
+        <v>45200</v>
       </c>
       <c r="H26" s="3">
-        <v>55100</v>
+        <v>51400</v>
       </c>
       <c r="I26" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1399,19 +1399,19 @@
         <v>-1300</v>
       </c>
       <c r="E27" s="3">
-        <v>531600</v>
+        <v>496500</v>
       </c>
       <c r="F27" s="3">
-        <v>61700</v>
+        <v>57600</v>
       </c>
       <c r="G27" s="3">
-        <v>47800</v>
+        <v>44600</v>
       </c>
       <c r="H27" s="3">
-        <v>27100</v>
+        <v>25300</v>
       </c>
       <c r="I27" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="E32" s="3">
-        <v>-540800</v>
+        <v>-505100</v>
       </c>
       <c r="F32" s="3">
-        <v>-28100</v>
+        <v>-26200</v>
       </c>
       <c r="G32" s="3">
-        <v>-21800</v>
+        <v>-20400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
@@ -1633,19 +1633,19 @@
         <v>-1300</v>
       </c>
       <c r="E33" s="3">
-        <v>531600</v>
+        <v>496500</v>
       </c>
       <c r="F33" s="3">
-        <v>61700</v>
+        <v>57600</v>
       </c>
       <c r="G33" s="3">
-        <v>47800</v>
+        <v>44600</v>
       </c>
       <c r="H33" s="3">
-        <v>27100</v>
+        <v>25300</v>
       </c>
       <c r="I33" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1711,19 +1711,19 @@
         <v>-1300</v>
       </c>
       <c r="E35" s="3">
-        <v>531600</v>
+        <v>496500</v>
       </c>
       <c r="F35" s="3">
-        <v>61700</v>
+        <v>57600</v>
       </c>
       <c r="G35" s="3">
-        <v>47800</v>
+        <v>44600</v>
       </c>
       <c r="H35" s="3">
-        <v>27100</v>
+        <v>25300</v>
       </c>
       <c r="I35" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>226400</v>
+        <v>211400</v>
       </c>
       <c r="E41" s="3">
-        <v>225100</v>
+        <v>210300</v>
       </c>
       <c r="F41" s="3">
-        <v>315900</v>
+        <v>295100</v>
       </c>
       <c r="G41" s="3">
-        <v>459500</v>
+        <v>429200</v>
       </c>
       <c r="H41" s="3">
-        <v>126700</v>
+        <v>118400</v>
       </c>
       <c r="I41" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>410000</v>
+        <v>383000</v>
       </c>
       <c r="E42" s="3">
-        <v>685100</v>
+        <v>639900</v>
       </c>
       <c r="F42" s="3">
-        <v>94200</v>
+        <v>88000</v>
       </c>
       <c r="G42" s="3">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="H42" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="I42" s="3">
-        <v>16700</v>
+        <v>15600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>399100</v>
+        <v>378500</v>
       </c>
       <c r="E43" s="3">
-        <v>404400</v>
+        <v>377700</v>
       </c>
       <c r="F43" s="3">
-        <v>292800</v>
+        <v>273500</v>
       </c>
       <c r="G43" s="3">
-        <v>192400</v>
+        <v>179700</v>
       </c>
       <c r="H43" s="3">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="I43" s="3">
-        <v>21900</v>
+        <v>20500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164700</v>
+        <v>148200</v>
       </c>
       <c r="E45" s="3">
-        <v>89400</v>
+        <v>83500</v>
       </c>
       <c r="F45" s="3">
-        <v>171200</v>
+        <v>159900</v>
       </c>
       <c r="G45" s="3">
-        <v>56200</v>
+        <v>52500</v>
       </c>
       <c r="H45" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="I45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200200</v>
+        <v>1121100</v>
       </c>
       <c r="E46" s="3">
-        <v>1403900</v>
+        <v>1311400</v>
       </c>
       <c r="F46" s="3">
-        <v>874100</v>
+        <v>816500</v>
       </c>
       <c r="G46" s="3">
-        <v>750100</v>
+        <v>700600</v>
       </c>
       <c r="H46" s="3">
-        <v>174800</v>
+        <v>163300</v>
       </c>
       <c r="I46" s="3">
-        <v>47700</v>
+        <v>44500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>240500</v>
+        <v>224700</v>
       </c>
       <c r="E47" s="3">
-        <v>273900</v>
+        <v>255800</v>
       </c>
       <c r="F47" s="3">
-        <v>316900</v>
+        <v>296000</v>
       </c>
       <c r="G47" s="3">
-        <v>248600</v>
+        <v>232200</v>
       </c>
       <c r="H47" s="3">
-        <v>76400</v>
+        <v>71400</v>
       </c>
       <c r="I47" s="3">
-        <v>54200</v>
+        <v>50600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,19 +2098,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="H48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
@@ -2137,16 +2137,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30700</v>
+        <v>28700</v>
       </c>
       <c r="E49" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="F49" s="3">
-        <v>29900</v>
+        <v>28000</v>
       </c>
       <c r="G49" s="3">
-        <v>23200</v>
+        <v>21600</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>252500</v>
+        <v>235800</v>
       </c>
       <c r="E52" s="3">
-        <v>206800</v>
+        <v>193200</v>
       </c>
       <c r="F52" s="3">
-        <v>155000</v>
+        <v>144800</v>
       </c>
       <c r="G52" s="3">
-        <v>127100</v>
+        <v>118700</v>
       </c>
       <c r="H52" s="3">
-        <v>62000</v>
+        <v>57900</v>
       </c>
       <c r="I52" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1727000</v>
+        <v>1613200</v>
       </c>
       <c r="E54" s="3">
-        <v>1916100</v>
+        <v>1789800</v>
       </c>
       <c r="F54" s="3">
-        <v>1378300</v>
+        <v>1287400</v>
       </c>
       <c r="G54" s="3">
-        <v>1151800</v>
+        <v>1075900</v>
       </c>
       <c r="H54" s="3">
-        <v>315000</v>
+        <v>294300</v>
       </c>
       <c r="I54" s="3">
-        <v>112800</v>
+        <v>105300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2404,23 +2404,23 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G57" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>239400</v>
+        <v>241900</v>
       </c>
       <c r="E58" s="3">
-        <v>250000</v>
+        <v>233500</v>
       </c>
       <c r="F58" s="3">
-        <v>363300</v>
+        <v>339400</v>
       </c>
       <c r="G58" s="3">
-        <v>177800</v>
+        <v>166100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>299700</v>
+        <v>261100</v>
       </c>
       <c r="E59" s="3">
-        <v>136900</v>
+        <v>127900</v>
       </c>
       <c r="F59" s="3">
-        <v>94300</v>
+        <v>88100</v>
       </c>
       <c r="G59" s="3">
-        <v>66500</v>
+        <v>62100</v>
       </c>
       <c r="H59" s="3">
-        <v>81600</v>
+        <v>76200</v>
       </c>
       <c r="I59" s="3">
-        <v>44500</v>
+        <v>41500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>539200</v>
+        <v>503600</v>
       </c>
       <c r="E60" s="3">
-        <v>387700</v>
+        <v>362100</v>
       </c>
       <c r="F60" s="3">
-        <v>458900</v>
+        <v>428700</v>
       </c>
       <c r="G60" s="3">
-        <v>247000</v>
+        <v>230700</v>
       </c>
       <c r="H60" s="3">
-        <v>83000</v>
+        <v>77600</v>
       </c>
       <c r="I60" s="3">
-        <v>45300</v>
+        <v>42300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76700</v>
+        <v>71700</v>
       </c>
       <c r="E61" s="3">
-        <v>154300</v>
+        <v>144100</v>
       </c>
       <c r="F61" s="3">
-        <v>47600</v>
+        <v>44500</v>
       </c>
       <c r="G61" s="3">
-        <v>74600</v>
+        <v>69700</v>
       </c>
       <c r="H61" s="3">
-        <v>27600</v>
+        <v>25800</v>
       </c>
       <c r="I61" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="E62" s="3">
-        <v>52900</v>
+        <v>49500</v>
       </c>
       <c r="F62" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="I62" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>624200</v>
+        <v>583000</v>
       </c>
       <c r="E66" s="3">
-        <v>594900</v>
+        <v>555700</v>
       </c>
       <c r="F66" s="3">
-        <v>514100</v>
+        <v>480200</v>
       </c>
       <c r="G66" s="3">
-        <v>323300</v>
+        <v>302000</v>
       </c>
       <c r="H66" s="3">
-        <v>120300</v>
+        <v>112400</v>
       </c>
       <c r="I66" s="3">
-        <v>81900</v>
+        <v>76500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>621900</v>
+        <v>580900</v>
       </c>
       <c r="I70" s="3">
-        <v>621900</v>
+        <v>580900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>471900</v>
+        <v>440800</v>
       </c>
       <c r="E72" s="3">
-        <v>624000</v>
+        <v>582900</v>
       </c>
       <c r="F72" s="3">
-        <v>134500</v>
+        <v>125600</v>
       </c>
       <c r="G72" s="3">
-        <v>110100</v>
+        <v>102900</v>
       </c>
       <c r="H72" s="3">
-        <v>-427800</v>
+        <v>-399600</v>
       </c>
       <c r="I72" s="3">
-        <v>-591700</v>
+        <v>-552700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1102800</v>
+        <v>1030100</v>
       </c>
       <c r="E76" s="3">
-        <v>1321300</v>
+        <v>1234200</v>
       </c>
       <c r="F76" s="3">
-        <v>864200</v>
+        <v>807200</v>
       </c>
       <c r="G76" s="3">
-        <v>828500</v>
+        <v>773900</v>
       </c>
       <c r="H76" s="3">
-        <v>-427200</v>
+        <v>-399000</v>
       </c>
       <c r="I76" s="3">
-        <v>-591000</v>
+        <v>-552000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3249,19 +3249,19 @@
         <v>-1300</v>
       </c>
       <c r="E81" s="3">
-        <v>531600</v>
+        <v>496500</v>
       </c>
       <c r="F81" s="3">
-        <v>61700</v>
+        <v>57600</v>
       </c>
       <c r="G81" s="3">
-        <v>47800</v>
+        <v>44600</v>
       </c>
       <c r="H81" s="3">
-        <v>27100</v>
+        <v>25300</v>
       </c>
       <c r="I81" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3301,20 +3301,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1300</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3535,23 +3535,23 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-59600</v>
       </c>
       <c r="E89" s="3">
-        <v>-98100</v>
+        <v>-91600</v>
       </c>
       <c r="F89" s="3">
-        <v>66700</v>
+        <v>62300</v>
       </c>
       <c r="G89" s="3">
-        <v>29200</v>
+        <v>27200</v>
       </c>
       <c r="H89" s="3">
-        <v>93000</v>
+        <v>86800</v>
       </c>
       <c r="I89" s="3">
-        <v>13100</v>
+        <v>12200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3591,20 +3591,20 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
         <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
@@ -3708,23 +3708,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>392200</v>
       </c>
       <c r="E94" s="3">
-        <v>-77900</v>
+        <v>-72700</v>
       </c>
       <c r="F94" s="3">
-        <v>-189100</v>
+        <v>-176600</v>
       </c>
       <c r="G94" s="3">
-        <v>-258500</v>
+        <v>-241500</v>
       </c>
       <c r="H94" s="3">
-        <v>-25700</v>
+        <v>-24000</v>
       </c>
       <c r="I94" s="3">
-        <v>-42900</v>
+        <v>-40100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-140800</v>
       </c>
       <c r="E96" s="3">
-        <v>-42200</v>
+        <v>-39400</v>
       </c>
       <c r="F96" s="3">
-        <v>-40600</v>
+        <v>-37900</v>
       </c>
       <c r="G96" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3920,23 +3920,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-286800</v>
       </c>
       <c r="E100" s="3">
-        <v>-60100</v>
+        <v>-56100</v>
       </c>
       <c r="F100" s="3">
-        <v>115300</v>
+        <v>107700</v>
       </c>
       <c r="G100" s="3">
-        <v>645400</v>
+        <v>602900</v>
       </c>
       <c r="H100" s="3">
-        <v>108200</v>
+        <v>101000</v>
       </c>
       <c r="I100" s="3">
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3959,20 +3959,20 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5700</v>
+        <v>-5300</v>
       </c>
       <c r="F101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="H101" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3998,20 +3998,20 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>43500</v>
       </c>
       <c r="E102" s="3">
-        <v>-241700</v>
+        <v>-225800</v>
       </c>
       <c r="F102" s="3">
-        <v>-5300</v>
+        <v>-4900</v>
       </c>
       <c r="G102" s="3">
-        <v>433500</v>
+        <v>404900</v>
       </c>
       <c r="H102" s="3">
-        <v>171400</v>
+        <v>160100</v>
       </c>
       <c r="I102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>577900</v>
+        <v>572700</v>
       </c>
       <c r="E8" s="3">
-        <v>302400</v>
+        <v>299700</v>
       </c>
       <c r="F8" s="3">
-        <v>212200</v>
+        <v>210300</v>
       </c>
       <c r="G8" s="3">
-        <v>160800</v>
+        <v>159400</v>
       </c>
       <c r="H8" s="3">
-        <v>155100</v>
+        <v>153700</v>
       </c>
       <c r="I8" s="3">
-        <v>64000</v>
+        <v>63400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>418300</v>
+        <v>414500</v>
       </c>
       <c r="E9" s="3">
-        <v>142300</v>
+        <v>141000</v>
       </c>
       <c r="F9" s="3">
-        <v>62200</v>
+        <v>61700</v>
       </c>
       <c r="G9" s="3">
-        <v>60200</v>
+        <v>59700</v>
       </c>
       <c r="H9" s="3">
-        <v>56900</v>
+        <v>56400</v>
       </c>
       <c r="I9" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>159600</v>
+        <v>158200</v>
       </c>
       <c r="E10" s="3">
-        <v>160100</v>
+        <v>158700</v>
       </c>
       <c r="F10" s="3">
-        <v>150000</v>
+        <v>148600</v>
       </c>
       <c r="G10" s="3">
-        <v>100600</v>
+        <v>99700</v>
       </c>
       <c r="H10" s="3">
-        <v>98200</v>
+        <v>97300</v>
       </c>
       <c r="I10" s="3">
-        <v>38900</v>
+        <v>38600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="G12" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="H12" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29100</v>
+        <v>28900</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>581300</v>
+        <v>576100</v>
       </c>
       <c r="E17" s="3">
-        <v>255500</v>
+        <v>253200</v>
       </c>
       <c r="F17" s="3">
-        <v>164600</v>
+        <v>163100</v>
       </c>
       <c r="G17" s="3">
-        <v>120100</v>
+        <v>119000</v>
       </c>
       <c r="H17" s="3">
-        <v>85800</v>
+        <v>85000</v>
       </c>
       <c r="I17" s="3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1070,19 +1070,19 @@
         <v>-3400</v>
       </c>
       <c r="E18" s="3">
-        <v>46900</v>
+        <v>46500</v>
       </c>
       <c r="F18" s="3">
-        <v>47600</v>
+        <v>47200</v>
       </c>
       <c r="G18" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H18" s="3">
-        <v>69300</v>
+        <v>68600</v>
       </c>
       <c r="I18" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E20" s="3">
-        <v>505100</v>
+        <v>500600</v>
       </c>
       <c r="F20" s="3">
-        <v>26200</v>
+        <v>26000</v>
       </c>
       <c r="G20" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="H20" s="3">
         <v>1700</v>
@@ -1165,19 +1165,19 @@
         <v>5200</v>
       </c>
       <c r="E21" s="3">
-        <v>553400</v>
+        <v>548400</v>
       </c>
       <c r="F21" s="3">
-        <v>75400</v>
+        <v>74700</v>
       </c>
       <c r="G21" s="3">
-        <v>62200</v>
+        <v>61700</v>
       </c>
       <c r="H21" s="3">
-        <v>71400</v>
+        <v>70700</v>
       </c>
       <c r="I21" s="3">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1243,19 +1243,19 @@
         <v>1800</v>
       </c>
       <c r="E23" s="3">
-        <v>551600</v>
+        <v>546600</v>
       </c>
       <c r="F23" s="3">
-        <v>71900</v>
+        <v>71200</v>
       </c>
       <c r="G23" s="3">
-        <v>58400</v>
+        <v>57800</v>
       </c>
       <c r="H23" s="3">
-        <v>69000</v>
+        <v>68400</v>
       </c>
       <c r="I23" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E24" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="F24" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="G24" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="H24" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I24" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
-        <v>497100</v>
+        <v>492600</v>
       </c>
       <c r="F26" s="3">
-        <v>59700</v>
+        <v>59100</v>
       </c>
       <c r="G26" s="3">
-        <v>45200</v>
+        <v>44800</v>
       </c>
       <c r="H26" s="3">
-        <v>51400</v>
+        <v>51000</v>
       </c>
       <c r="I26" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>496500</v>
+        <v>492100</v>
       </c>
       <c r="F27" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="G27" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="H27" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="I27" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="E32" s="3">
-        <v>-505100</v>
+        <v>-500600</v>
       </c>
       <c r="F32" s="3">
-        <v>-26200</v>
+        <v>-26000</v>
       </c>
       <c r="G32" s="3">
-        <v>-20400</v>
+        <v>-20200</v>
       </c>
       <c r="H32" s="3">
         <v>-1700</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
-        <v>496500</v>
+        <v>492100</v>
       </c>
       <c r="F33" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="G33" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="H33" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="I33" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
-        <v>496500</v>
+        <v>492100</v>
       </c>
       <c r="F35" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="G35" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="H35" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="I35" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,19 +1825,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>211400</v>
+        <v>209500</v>
       </c>
       <c r="E41" s="3">
-        <v>210300</v>
+        <v>208400</v>
       </c>
       <c r="F41" s="3">
-        <v>295100</v>
+        <v>292400</v>
       </c>
       <c r="G41" s="3">
-        <v>429200</v>
+        <v>425400</v>
       </c>
       <c r="H41" s="3">
-        <v>118400</v>
+        <v>117300</v>
       </c>
       <c r="I41" s="3">
         <v>6600</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>383000</v>
+        <v>379500</v>
       </c>
       <c r="E42" s="3">
-        <v>639900</v>
+        <v>634100</v>
       </c>
       <c r="F42" s="3">
-        <v>88000</v>
+        <v>87200</v>
       </c>
       <c r="G42" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="H42" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="I42" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>378500</v>
+        <v>375100</v>
       </c>
       <c r="E43" s="3">
-        <v>377700</v>
+        <v>374300</v>
       </c>
       <c r="F43" s="3">
-        <v>273500</v>
+        <v>271100</v>
       </c>
       <c r="G43" s="3">
-        <v>179700</v>
+        <v>178100</v>
       </c>
       <c r="H43" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="I43" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,19 +1981,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148200</v>
+        <v>146800</v>
       </c>
       <c r="E45" s="3">
-        <v>83500</v>
+        <v>82700</v>
       </c>
       <c r="F45" s="3">
-        <v>159900</v>
+        <v>158400</v>
       </c>
       <c r="G45" s="3">
-        <v>52500</v>
+        <v>52000</v>
       </c>
       <c r="H45" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="I45" s="3">
         <v>1800</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1121100</v>
+        <v>1111000</v>
       </c>
       <c r="E46" s="3">
-        <v>1311400</v>
+        <v>1299500</v>
       </c>
       <c r="F46" s="3">
-        <v>816500</v>
+        <v>809100</v>
       </c>
       <c r="G46" s="3">
-        <v>700600</v>
+        <v>694300</v>
       </c>
       <c r="H46" s="3">
-        <v>163300</v>
+        <v>161800</v>
       </c>
       <c r="I46" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>224700</v>
+        <v>222700</v>
       </c>
       <c r="E47" s="3">
-        <v>255800</v>
+        <v>253500</v>
       </c>
       <c r="F47" s="3">
-        <v>296000</v>
+        <v>293300</v>
       </c>
       <c r="G47" s="3">
-        <v>232200</v>
+        <v>230100</v>
       </c>
       <c r="H47" s="3">
-        <v>71400</v>
+        <v>70700</v>
       </c>
       <c r="I47" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2137,19 +2137,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="E49" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="F49" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="G49" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>235800</v>
+        <v>233700</v>
       </c>
       <c r="E52" s="3">
-        <v>193200</v>
+        <v>191400</v>
       </c>
       <c r="F52" s="3">
-        <v>144800</v>
+        <v>143500</v>
       </c>
       <c r="G52" s="3">
-        <v>118700</v>
+        <v>117600</v>
       </c>
       <c r="H52" s="3">
-        <v>57900</v>
+        <v>57400</v>
       </c>
       <c r="I52" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1613200</v>
+        <v>1598600</v>
       </c>
       <c r="E54" s="3">
-        <v>1789800</v>
+        <v>1773700</v>
       </c>
       <c r="F54" s="3">
-        <v>1287400</v>
+        <v>1275800</v>
       </c>
       <c r="G54" s="3">
-        <v>1075900</v>
+        <v>1066200</v>
       </c>
       <c r="H54" s="3">
-        <v>294300</v>
+        <v>291600</v>
       </c>
       <c r="I54" s="3">
-        <v>105300</v>
+        <v>104400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>1200</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>241900</v>
+        <v>239700</v>
       </c>
       <c r="E58" s="3">
-        <v>233500</v>
+        <v>231400</v>
       </c>
       <c r="F58" s="3">
-        <v>339400</v>
+        <v>336300</v>
       </c>
       <c r="G58" s="3">
-        <v>166100</v>
+        <v>164600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>261100</v>
+        <v>258800</v>
       </c>
       <c r="E59" s="3">
-        <v>127900</v>
+        <v>126700</v>
       </c>
       <c r="F59" s="3">
-        <v>88100</v>
+        <v>87300</v>
       </c>
       <c r="G59" s="3">
-        <v>62100</v>
+        <v>61500</v>
       </c>
       <c r="H59" s="3">
-        <v>76200</v>
+        <v>75500</v>
       </c>
       <c r="I59" s="3">
-        <v>41500</v>
+        <v>41200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>503600</v>
+        <v>499100</v>
       </c>
       <c r="E60" s="3">
-        <v>362100</v>
+        <v>358800</v>
       </c>
       <c r="F60" s="3">
-        <v>428700</v>
+        <v>424800</v>
       </c>
       <c r="G60" s="3">
-        <v>230700</v>
+        <v>228600</v>
       </c>
       <c r="H60" s="3">
-        <v>77600</v>
+        <v>76900</v>
       </c>
       <c r="I60" s="3">
-        <v>42300</v>
+        <v>41900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71700</v>
+        <v>71000</v>
       </c>
       <c r="E61" s="3">
-        <v>144100</v>
+        <v>142800</v>
       </c>
       <c r="F61" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="G61" s="3">
-        <v>69700</v>
+        <v>69000</v>
       </c>
       <c r="H61" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="I61" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>7700</v>
       </c>
       <c r="E62" s="3">
-        <v>49500</v>
+        <v>49000</v>
       </c>
       <c r="F62" s="3">
         <v>5000</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>583000</v>
+        <v>577800</v>
       </c>
       <c r="E66" s="3">
-        <v>555700</v>
+        <v>550600</v>
       </c>
       <c r="F66" s="3">
-        <v>480200</v>
+        <v>475900</v>
       </c>
       <c r="G66" s="3">
-        <v>302000</v>
+        <v>299300</v>
       </c>
       <c r="H66" s="3">
-        <v>112400</v>
+        <v>111400</v>
       </c>
       <c r="I66" s="3">
-        <v>76500</v>
+        <v>75800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>580900</v>
+        <v>575600</v>
       </c>
       <c r="I70" s="3">
-        <v>580900</v>
+        <v>575600</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>440800</v>
+        <v>436800</v>
       </c>
       <c r="E72" s="3">
-        <v>582900</v>
+        <v>577600</v>
       </c>
       <c r="F72" s="3">
-        <v>125600</v>
+        <v>124500</v>
       </c>
       <c r="G72" s="3">
-        <v>102900</v>
+        <v>101900</v>
       </c>
       <c r="H72" s="3">
-        <v>-399600</v>
+        <v>-395900</v>
       </c>
       <c r="I72" s="3">
-        <v>-552700</v>
+        <v>-547700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1030100</v>
+        <v>1020800</v>
       </c>
       <c r="E76" s="3">
-        <v>1234200</v>
+        <v>1223000</v>
       </c>
       <c r="F76" s="3">
-        <v>807200</v>
+        <v>799900</v>
       </c>
       <c r="G76" s="3">
-        <v>773900</v>
+        <v>766900</v>
       </c>
       <c r="H76" s="3">
-        <v>-399000</v>
+        <v>-395400</v>
       </c>
       <c r="I76" s="3">
-        <v>-552000</v>
+        <v>-547000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
-        <v>496500</v>
+        <v>492100</v>
       </c>
       <c r="F81" s="3">
-        <v>57600</v>
+        <v>57100</v>
       </c>
       <c r="G81" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="H81" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="I81" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,7 +3302,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>1400</v>
@@ -3311,7 +3311,7 @@
         <v>1500</v>
       </c>
       <c r="G83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-59600</v>
+        <v>-59100</v>
       </c>
       <c r="E89" s="3">
-        <v>-91600</v>
+        <v>-90800</v>
       </c>
       <c r="F89" s="3">
-        <v>62300</v>
+        <v>61800</v>
       </c>
       <c r="G89" s="3">
-        <v>27200</v>
+        <v>27000</v>
       </c>
       <c r="H89" s="3">
-        <v>86800</v>
+        <v>86100</v>
       </c>
       <c r="I89" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>392200</v>
+        <v>388600</v>
       </c>
       <c r="E94" s="3">
-        <v>-72700</v>
+        <v>-72100</v>
       </c>
       <c r="F94" s="3">
-        <v>-176600</v>
+        <v>-175000</v>
       </c>
       <c r="G94" s="3">
-        <v>-241500</v>
+        <v>-239300</v>
       </c>
       <c r="H94" s="3">
-        <v>-24000</v>
+        <v>-23800</v>
       </c>
       <c r="I94" s="3">
-        <v>-40100</v>
+        <v>-39700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3765,13 +3765,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-140800</v>
+        <v>-139500</v>
       </c>
       <c r="E96" s="3">
-        <v>-39400</v>
+        <v>-39000</v>
       </c>
       <c r="F96" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="G96" s="3">
         <v>-4000</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-286800</v>
+        <v>-284200</v>
       </c>
       <c r="E100" s="3">
-        <v>-56100</v>
+        <v>-55600</v>
       </c>
       <c r="F100" s="3">
-        <v>107700</v>
+        <v>106700</v>
       </c>
       <c r="G100" s="3">
-        <v>602900</v>
+        <v>597400</v>
       </c>
       <c r="H100" s="3">
-        <v>101000</v>
+        <v>100100</v>
       </c>
       <c r="I100" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3969,7 +3969,7 @@
         <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="H101" s="3">
         <v>-3700</v>
@@ -3999,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="E102" s="3">
-        <v>-225800</v>
+        <v>-223700</v>
       </c>
       <c r="F102" s="3">
         <v>-4900</v>
       </c>
       <c r="G102" s="3">
-        <v>404900</v>
+        <v>401300</v>
       </c>
       <c r="H102" s="3">
-        <v>160100</v>
+        <v>158700</v>
       </c>
       <c r="I102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>572700</v>
+        <v>545900</v>
       </c>
       <c r="E8" s="3">
-        <v>299700</v>
+        <v>285700</v>
       </c>
       <c r="F8" s="3">
-        <v>210300</v>
+        <v>200500</v>
       </c>
       <c r="G8" s="3">
-        <v>159400</v>
+        <v>151900</v>
       </c>
       <c r="H8" s="3">
-        <v>153700</v>
+        <v>146500</v>
       </c>
       <c r="I8" s="3">
-        <v>63400</v>
+        <v>60500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>414500</v>
+        <v>395100</v>
       </c>
       <c r="E9" s="3">
-        <v>141000</v>
+        <v>134400</v>
       </c>
       <c r="F9" s="3">
-        <v>61700</v>
+        <v>58800</v>
       </c>
       <c r="G9" s="3">
-        <v>59700</v>
+        <v>56900</v>
       </c>
       <c r="H9" s="3">
-        <v>56400</v>
+        <v>53700</v>
       </c>
       <c r="I9" s="3">
-        <v>24800</v>
+        <v>23700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>158200</v>
+        <v>150800</v>
       </c>
       <c r="E10" s="3">
-        <v>158700</v>
+        <v>151300</v>
       </c>
       <c r="F10" s="3">
-        <v>148600</v>
+        <v>141700</v>
       </c>
       <c r="G10" s="3">
-        <v>99700</v>
+        <v>95000</v>
       </c>
       <c r="H10" s="3">
-        <v>97300</v>
+        <v>92700</v>
       </c>
       <c r="I10" s="3">
-        <v>38600</v>
+        <v>36800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="F12" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="H12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
@@ -936,19 +936,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28900</v>
+        <v>27500</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>576100</v>
+        <v>549100</v>
       </c>
       <c r="E17" s="3">
-        <v>253200</v>
+        <v>241400</v>
       </c>
       <c r="F17" s="3">
-        <v>163100</v>
+        <v>155500</v>
       </c>
       <c r="G17" s="3">
-        <v>119000</v>
+        <v>113400</v>
       </c>
       <c r="H17" s="3">
-        <v>85000</v>
+        <v>81000</v>
       </c>
       <c r="I17" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="E18" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="F18" s="3">
-        <v>47200</v>
+        <v>45000</v>
       </c>
       <c r="G18" s="3">
-        <v>40400</v>
+        <v>38500</v>
       </c>
       <c r="H18" s="3">
-        <v>68600</v>
+        <v>65400</v>
       </c>
       <c r="I18" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>500600</v>
+        <v>477100</v>
       </c>
       <c r="F20" s="3">
-        <v>26000</v>
+        <v>24800</v>
       </c>
       <c r="G20" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="H20" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="E21" s="3">
-        <v>548400</v>
+        <v>522800</v>
       </c>
       <c r="F21" s="3">
-        <v>74700</v>
+        <v>71200</v>
       </c>
       <c r="G21" s="3">
-        <v>61700</v>
+        <v>58800</v>
       </c>
       <c r="H21" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="I21" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G22" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E23" s="3">
-        <v>546600</v>
+        <v>521100</v>
       </c>
       <c r="F23" s="3">
-        <v>71200</v>
+        <v>67900</v>
       </c>
       <c r="G23" s="3">
-        <v>57800</v>
+        <v>55100</v>
       </c>
       <c r="H23" s="3">
-        <v>68400</v>
+        <v>65200</v>
       </c>
       <c r="I23" s="3">
-        <v>27200</v>
+        <v>26000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E24" s="3">
-        <v>54000</v>
+        <v>51500</v>
       </c>
       <c r="F24" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="G24" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="H24" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="I24" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1360,19 +1360,19 @@
         <v>-1200</v>
       </c>
       <c r="E26" s="3">
-        <v>492600</v>
+        <v>469600</v>
       </c>
       <c r="F26" s="3">
-        <v>59100</v>
+        <v>56400</v>
       </c>
       <c r="G26" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="H26" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="I26" s="3">
-        <v>19500</v>
+        <v>18600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1399,19 +1399,19 @@
         <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>492100</v>
+        <v>469000</v>
       </c>
       <c r="F27" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="G27" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="H27" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="I27" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>-500600</v>
+        <v>-477100</v>
       </c>
       <c r="F32" s="3">
-        <v>-26000</v>
+        <v>-24800</v>
       </c>
       <c r="G32" s="3">
-        <v>-20200</v>
+        <v>-19300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
@@ -1633,19 +1633,19 @@
         <v>-1200</v>
       </c>
       <c r="E33" s="3">
-        <v>492100</v>
+        <v>469000</v>
       </c>
       <c r="F33" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="G33" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="H33" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="I33" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1711,19 +1711,19 @@
         <v>-1200</v>
       </c>
       <c r="E35" s="3">
-        <v>492100</v>
+        <v>469000</v>
       </c>
       <c r="F35" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="G35" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="H35" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="I35" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>209500</v>
+        <v>199700</v>
       </c>
       <c r="E41" s="3">
-        <v>208400</v>
+        <v>198600</v>
       </c>
       <c r="F41" s="3">
-        <v>292400</v>
+        <v>278700</v>
       </c>
       <c r="G41" s="3">
-        <v>425400</v>
+        <v>405500</v>
       </c>
       <c r="H41" s="3">
-        <v>117300</v>
+        <v>111800</v>
       </c>
       <c r="I41" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>379500</v>
+        <v>361800</v>
       </c>
       <c r="E42" s="3">
-        <v>634100</v>
+        <v>604500</v>
       </c>
       <c r="F42" s="3">
-        <v>87200</v>
+        <v>83100</v>
       </c>
       <c r="G42" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="H42" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="I42" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>375100</v>
+        <v>357600</v>
       </c>
       <c r="E43" s="3">
-        <v>374300</v>
+        <v>356800</v>
       </c>
       <c r="F43" s="3">
-        <v>271100</v>
+        <v>258400</v>
       </c>
       <c r="G43" s="3">
-        <v>178100</v>
+        <v>169800</v>
       </c>
       <c r="H43" s="3">
-        <v>22700</v>
+        <v>21600</v>
       </c>
       <c r="I43" s="3">
-        <v>20300</v>
+        <v>19400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>146800</v>
+        <v>140000</v>
       </c>
       <c r="E45" s="3">
-        <v>82700</v>
+        <v>78900</v>
       </c>
       <c r="F45" s="3">
-        <v>158400</v>
+        <v>151000</v>
       </c>
       <c r="G45" s="3">
-        <v>52000</v>
+        <v>49600</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1111000</v>
+        <v>1059000</v>
       </c>
       <c r="E46" s="3">
-        <v>1299500</v>
+        <v>1238700</v>
       </c>
       <c r="F46" s="3">
-        <v>809100</v>
+        <v>771300</v>
       </c>
       <c r="G46" s="3">
-        <v>694300</v>
+        <v>661800</v>
       </c>
       <c r="H46" s="3">
-        <v>161800</v>
+        <v>154300</v>
       </c>
       <c r="I46" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>222700</v>
+        <v>212200</v>
       </c>
       <c r="E47" s="3">
-        <v>253500</v>
+        <v>241600</v>
       </c>
       <c r="F47" s="3">
-        <v>293300</v>
+        <v>279600</v>
       </c>
       <c r="G47" s="3">
-        <v>230100</v>
+        <v>219400</v>
       </c>
       <c r="H47" s="3">
-        <v>70700</v>
+        <v>67400</v>
       </c>
       <c r="I47" s="3">
-        <v>50100</v>
+        <v>47800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,16 +2137,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="E49" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="F49" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="G49" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>233700</v>
+        <v>222800</v>
       </c>
       <c r="E52" s="3">
-        <v>191400</v>
+        <v>182500</v>
       </c>
       <c r="F52" s="3">
-        <v>143500</v>
+        <v>136800</v>
       </c>
       <c r="G52" s="3">
-        <v>117600</v>
+        <v>112100</v>
       </c>
       <c r="H52" s="3">
-        <v>57400</v>
+        <v>54700</v>
       </c>
       <c r="I52" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1598600</v>
+        <v>1523800</v>
       </c>
       <c r="E54" s="3">
-        <v>1773700</v>
+        <v>1690700</v>
       </c>
       <c r="F54" s="3">
-        <v>1275800</v>
+        <v>1216100</v>
       </c>
       <c r="G54" s="3">
-        <v>1066200</v>
+        <v>1016300</v>
       </c>
       <c r="H54" s="3">
-        <v>291600</v>
+        <v>278000</v>
       </c>
       <c r="I54" s="3">
-        <v>104400</v>
+        <v>99500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2411,13 +2411,13 @@
         <v>700</v>
       </c>
       <c r="F57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G57" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>239700</v>
+        <v>228500</v>
       </c>
       <c r="E58" s="3">
-        <v>231400</v>
+        <v>220600</v>
       </c>
       <c r="F58" s="3">
-        <v>336300</v>
+        <v>320600</v>
       </c>
       <c r="G58" s="3">
-        <v>164600</v>
+        <v>156900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>258800</v>
+        <v>246700</v>
       </c>
       <c r="E59" s="3">
-        <v>126700</v>
+        <v>120800</v>
       </c>
       <c r="F59" s="3">
-        <v>87300</v>
+        <v>83200</v>
       </c>
       <c r="G59" s="3">
-        <v>61500</v>
+        <v>58700</v>
       </c>
       <c r="H59" s="3">
-        <v>75500</v>
+        <v>72000</v>
       </c>
       <c r="I59" s="3">
-        <v>41200</v>
+        <v>39200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>499100</v>
+        <v>475700</v>
       </c>
       <c r="E60" s="3">
-        <v>358800</v>
+        <v>342100</v>
       </c>
       <c r="F60" s="3">
-        <v>424800</v>
+        <v>404900</v>
       </c>
       <c r="G60" s="3">
-        <v>228600</v>
+        <v>217900</v>
       </c>
       <c r="H60" s="3">
-        <v>76900</v>
+        <v>73300</v>
       </c>
       <c r="I60" s="3">
-        <v>41900</v>
+        <v>39900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71000</v>
+        <v>67700</v>
       </c>
       <c r="E61" s="3">
-        <v>142800</v>
+        <v>136100</v>
       </c>
       <c r="F61" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="G61" s="3">
-        <v>69000</v>
+        <v>65800</v>
       </c>
       <c r="H61" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="I61" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="F62" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="I62" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>577800</v>
+        <v>550700</v>
       </c>
       <c r="E66" s="3">
-        <v>550600</v>
+        <v>524900</v>
       </c>
       <c r="F66" s="3">
-        <v>475900</v>
+        <v>453600</v>
       </c>
       <c r="G66" s="3">
-        <v>299300</v>
+        <v>285300</v>
       </c>
       <c r="H66" s="3">
-        <v>111400</v>
+        <v>106200</v>
       </c>
       <c r="I66" s="3">
-        <v>75800</v>
+        <v>72300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>575600</v>
+        <v>548700</v>
       </c>
       <c r="I70" s="3">
-        <v>575600</v>
+        <v>548700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>436800</v>
+        <v>416400</v>
       </c>
       <c r="E72" s="3">
-        <v>577600</v>
+        <v>550600</v>
       </c>
       <c r="F72" s="3">
-        <v>124500</v>
+        <v>118700</v>
       </c>
       <c r="G72" s="3">
-        <v>101900</v>
+        <v>97200</v>
       </c>
       <c r="H72" s="3">
-        <v>-395900</v>
+        <v>-377400</v>
       </c>
       <c r="I72" s="3">
-        <v>-547700</v>
+        <v>-522100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1020800</v>
+        <v>973100</v>
       </c>
       <c r="E76" s="3">
-        <v>1223000</v>
+        <v>1165800</v>
       </c>
       <c r="F76" s="3">
-        <v>799900</v>
+        <v>762500</v>
       </c>
       <c r="G76" s="3">
-        <v>766900</v>
+        <v>731000</v>
       </c>
       <c r="H76" s="3">
-        <v>-395400</v>
+        <v>-376900</v>
       </c>
       <c r="I76" s="3">
-        <v>-547000</v>
+        <v>-521400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3249,19 +3249,19 @@
         <v>-1200</v>
       </c>
       <c r="E81" s="3">
-        <v>492100</v>
+        <v>469000</v>
       </c>
       <c r="F81" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="G81" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="H81" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="I81" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3305,7 +3305,7 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="3">
         <v>1500</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-59100</v>
+        <v>-56300</v>
       </c>
       <c r="E89" s="3">
-        <v>-90800</v>
+        <v>-86500</v>
       </c>
       <c r="F89" s="3">
-        <v>61800</v>
+        <v>58900</v>
       </c>
       <c r="G89" s="3">
-        <v>27000</v>
+        <v>25700</v>
       </c>
       <c r="H89" s="3">
-        <v>86100</v>
+        <v>82000</v>
       </c>
       <c r="I89" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="E91" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F91" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>388600</v>
+        <v>370400</v>
       </c>
       <c r="E94" s="3">
-        <v>-72100</v>
+        <v>-68700</v>
       </c>
       <c r="F94" s="3">
-        <v>-175000</v>
+        <v>-166800</v>
       </c>
       <c r="G94" s="3">
-        <v>-239300</v>
+        <v>-228100</v>
       </c>
       <c r="H94" s="3">
-        <v>-23800</v>
+        <v>-22700</v>
       </c>
       <c r="I94" s="3">
-        <v>-39700</v>
+        <v>-37900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-139500</v>
+        <v>-133000</v>
       </c>
       <c r="E96" s="3">
-        <v>-39000</v>
+        <v>-37200</v>
       </c>
       <c r="F96" s="3">
-        <v>-37500</v>
+        <v>-35800</v>
       </c>
       <c r="G96" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-284200</v>
+        <v>-270900</v>
       </c>
       <c r="E100" s="3">
-        <v>-55600</v>
+        <v>-53000</v>
       </c>
       <c r="F100" s="3">
-        <v>106700</v>
+        <v>101700</v>
       </c>
       <c r="G100" s="3">
-        <v>597400</v>
+        <v>569500</v>
       </c>
       <c r="H100" s="3">
-        <v>100100</v>
+        <v>95400</v>
       </c>
       <c r="I100" s="3">
-        <v>27300</v>
+        <v>26100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="H101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3999,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="E102" s="3">
-        <v>-223700</v>
+        <v>-213300</v>
       </c>
       <c r="F102" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="G102" s="3">
-        <v>401300</v>
+        <v>382500</v>
       </c>
       <c r="H102" s="3">
-        <v>158700</v>
+        <v>151300</v>
       </c>
       <c r="I102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>545900</v>
+        <v>563200</v>
       </c>
       <c r="E8" s="3">
-        <v>285700</v>
+        <v>294800</v>
       </c>
       <c r="F8" s="3">
-        <v>200500</v>
+        <v>206800</v>
       </c>
       <c r="G8" s="3">
-        <v>151900</v>
+        <v>156700</v>
       </c>
       <c r="H8" s="3">
-        <v>146500</v>
+        <v>151100</v>
       </c>
       <c r="I8" s="3">
-        <v>60500</v>
+        <v>62400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>395100</v>
+        <v>407600</v>
       </c>
       <c r="E9" s="3">
-        <v>134400</v>
+        <v>138700</v>
       </c>
       <c r="F9" s="3">
-        <v>58800</v>
+        <v>60700</v>
       </c>
       <c r="G9" s="3">
-        <v>56900</v>
+        <v>58700</v>
       </c>
       <c r="H9" s="3">
-        <v>53700</v>
+        <v>55400</v>
       </c>
       <c r="I9" s="3">
-        <v>23700</v>
+        <v>24400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>150800</v>
+        <v>155600</v>
       </c>
       <c r="E10" s="3">
-        <v>151300</v>
+        <v>156100</v>
       </c>
       <c r="F10" s="3">
-        <v>141700</v>
+        <v>146200</v>
       </c>
       <c r="G10" s="3">
-        <v>95000</v>
+        <v>98000</v>
       </c>
       <c r="H10" s="3">
-        <v>92700</v>
+        <v>95700</v>
       </c>
       <c r="I10" s="3">
-        <v>36800</v>
+        <v>37900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="E12" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="F12" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H12" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I12" s="3">
         <v>700</v>
@@ -936,19 +936,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27500</v>
+        <v>28400</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>549100</v>
+        <v>566600</v>
       </c>
       <c r="E17" s="3">
-        <v>241400</v>
+        <v>249100</v>
       </c>
       <c r="F17" s="3">
-        <v>155500</v>
+        <v>160400</v>
       </c>
       <c r="G17" s="3">
-        <v>113400</v>
+        <v>117000</v>
       </c>
       <c r="H17" s="3">
-        <v>81000</v>
+        <v>83600</v>
       </c>
       <c r="I17" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E18" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="F18" s="3">
-        <v>45000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="H18" s="3">
-        <v>65400</v>
+        <v>67500</v>
       </c>
       <c r="I18" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="E20" s="3">
-        <v>477100</v>
+        <v>492300</v>
       </c>
       <c r="F20" s="3">
-        <v>24800</v>
+        <v>25600</v>
       </c>
       <c r="G20" s="3">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="H20" s="3">
         <v>1600</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E21" s="3">
-        <v>522800</v>
+        <v>539400</v>
       </c>
       <c r="F21" s="3">
-        <v>71200</v>
+        <v>73500</v>
       </c>
       <c r="G21" s="3">
-        <v>58800</v>
+        <v>60600</v>
       </c>
       <c r="H21" s="3">
-        <v>67400</v>
+        <v>69600</v>
       </c>
       <c r="I21" s="3">
-        <v>26200</v>
+        <v>27100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1210,10 +1210,10 @@
         <v>1900</v>
       </c>
       <c r="G22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E23" s="3">
-        <v>521100</v>
+        <v>537600</v>
       </c>
       <c r="F23" s="3">
-        <v>67900</v>
+        <v>70100</v>
       </c>
       <c r="G23" s="3">
-        <v>55100</v>
+        <v>56900</v>
       </c>
       <c r="H23" s="3">
-        <v>65200</v>
+        <v>67300</v>
       </c>
       <c r="I23" s="3">
-        <v>26000</v>
+        <v>26800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,22 +1279,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E24" s="3">
-        <v>51500</v>
+        <v>53100</v>
       </c>
       <c r="F24" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="G24" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="H24" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="I24" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1360,19 +1360,19 @@
         <v>-1200</v>
       </c>
       <c r="E26" s="3">
-        <v>469600</v>
+        <v>484500</v>
       </c>
       <c r="F26" s="3">
-        <v>56400</v>
+        <v>58100</v>
       </c>
       <c r="G26" s="3">
-        <v>42700</v>
+        <v>44100</v>
       </c>
       <c r="H26" s="3">
-        <v>48600</v>
+        <v>50100</v>
       </c>
       <c r="I26" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1399,19 +1399,19 @@
         <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>469000</v>
+        <v>483900</v>
       </c>
       <c r="F27" s="3">
-        <v>54400</v>
+        <v>56100</v>
       </c>
       <c r="G27" s="3">
-        <v>42100</v>
+        <v>43500</v>
       </c>
       <c r="H27" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="I27" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="E32" s="3">
-        <v>-477100</v>
+        <v>-492300</v>
       </c>
       <c r="F32" s="3">
-        <v>-24800</v>
+        <v>-25600</v>
       </c>
       <c r="G32" s="3">
-        <v>-19300</v>
+        <v>-19900</v>
       </c>
       <c r="H32" s="3">
         <v>-1600</v>
@@ -1633,19 +1633,19 @@
         <v>-1200</v>
       </c>
       <c r="E33" s="3">
-        <v>469000</v>
+        <v>483900</v>
       </c>
       <c r="F33" s="3">
-        <v>54400</v>
+        <v>56100</v>
       </c>
       <c r="G33" s="3">
-        <v>42100</v>
+        <v>43500</v>
       </c>
       <c r="H33" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="I33" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1711,19 +1711,19 @@
         <v>-1200</v>
       </c>
       <c r="E35" s="3">
-        <v>469000</v>
+        <v>483900</v>
       </c>
       <c r="F35" s="3">
-        <v>54400</v>
+        <v>56100</v>
       </c>
       <c r="G35" s="3">
-        <v>42100</v>
+        <v>43500</v>
       </c>
       <c r="H35" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="I35" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>199700</v>
+        <v>206100</v>
       </c>
       <c r="E41" s="3">
-        <v>198600</v>
+        <v>204900</v>
       </c>
       <c r="F41" s="3">
-        <v>278700</v>
+        <v>287600</v>
       </c>
       <c r="G41" s="3">
-        <v>405500</v>
+        <v>418400</v>
       </c>
       <c r="H41" s="3">
-        <v>111800</v>
+        <v>115400</v>
       </c>
       <c r="I41" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>361800</v>
+        <v>373300</v>
       </c>
       <c r="E42" s="3">
-        <v>604500</v>
+        <v>623600</v>
       </c>
       <c r="F42" s="3">
-        <v>83100</v>
+        <v>85800</v>
       </c>
       <c r="G42" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="H42" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="I42" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>357600</v>
+        <v>368900</v>
       </c>
       <c r="E43" s="3">
-        <v>356800</v>
+        <v>368100</v>
       </c>
       <c r="F43" s="3">
-        <v>258400</v>
+        <v>266600</v>
       </c>
       <c r="G43" s="3">
-        <v>169800</v>
+        <v>175100</v>
       </c>
       <c r="H43" s="3">
-        <v>21600</v>
+        <v>22300</v>
       </c>
       <c r="I43" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,19 +1981,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140000</v>
+        <v>144400</v>
       </c>
       <c r="E45" s="3">
-        <v>78900</v>
+        <v>81400</v>
       </c>
       <c r="F45" s="3">
-        <v>151000</v>
+        <v>155800</v>
       </c>
       <c r="G45" s="3">
-        <v>49600</v>
+        <v>51200</v>
       </c>
       <c r="H45" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="I45" s="3">
         <v>1700</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1059000</v>
+        <v>1092700</v>
       </c>
       <c r="E46" s="3">
-        <v>1238700</v>
+        <v>1278100</v>
       </c>
       <c r="F46" s="3">
-        <v>771300</v>
+        <v>795800</v>
       </c>
       <c r="G46" s="3">
-        <v>661800</v>
+        <v>682900</v>
       </c>
       <c r="H46" s="3">
-        <v>154300</v>
+        <v>159200</v>
       </c>
       <c r="I46" s="3">
-        <v>42000</v>
+        <v>43400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>212200</v>
+        <v>219000</v>
       </c>
       <c r="E47" s="3">
-        <v>241600</v>
+        <v>249300</v>
       </c>
       <c r="F47" s="3">
-        <v>279600</v>
+        <v>288500</v>
       </c>
       <c r="G47" s="3">
-        <v>219400</v>
+        <v>226300</v>
       </c>
       <c r="H47" s="3">
-        <v>67400</v>
+        <v>69600</v>
       </c>
       <c r="I47" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,16 +2137,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="E49" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="F49" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="G49" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>222800</v>
+        <v>229800</v>
       </c>
       <c r="E52" s="3">
-        <v>182500</v>
+        <v>188200</v>
       </c>
       <c r="F52" s="3">
-        <v>136800</v>
+        <v>141100</v>
       </c>
       <c r="G52" s="3">
-        <v>112100</v>
+        <v>115700</v>
       </c>
       <c r="H52" s="3">
-        <v>54700</v>
+        <v>56400</v>
       </c>
       <c r="I52" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1523800</v>
+        <v>1572200</v>
       </c>
       <c r="E54" s="3">
-        <v>1690700</v>
+        <v>1744400</v>
       </c>
       <c r="F54" s="3">
-        <v>1216100</v>
+        <v>1254700</v>
       </c>
       <c r="G54" s="3">
-        <v>1016300</v>
+        <v>1048600</v>
       </c>
       <c r="H54" s="3">
-        <v>278000</v>
+        <v>286800</v>
       </c>
       <c r="I54" s="3">
-        <v>99500</v>
+        <v>102700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2411,10 +2411,10 @@
         <v>700</v>
       </c>
       <c r="F57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G57" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H57" s="3">
         <v>1300</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>228500</v>
+        <v>235800</v>
       </c>
       <c r="E58" s="3">
-        <v>220600</v>
+        <v>227600</v>
       </c>
       <c r="F58" s="3">
-        <v>320600</v>
+        <v>330800</v>
       </c>
       <c r="G58" s="3">
-        <v>156900</v>
+        <v>161900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>246700</v>
+        <v>254500</v>
       </c>
       <c r="E59" s="3">
-        <v>120800</v>
+        <v>124600</v>
       </c>
       <c r="F59" s="3">
-        <v>83200</v>
+        <v>85800</v>
       </c>
       <c r="G59" s="3">
-        <v>58700</v>
+        <v>60500</v>
       </c>
       <c r="H59" s="3">
-        <v>72000</v>
+        <v>74200</v>
       </c>
       <c r="I59" s="3">
-        <v>39200</v>
+        <v>40500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>475700</v>
+        <v>490900</v>
       </c>
       <c r="E60" s="3">
-        <v>342100</v>
+        <v>352900</v>
       </c>
       <c r="F60" s="3">
-        <v>404900</v>
+        <v>417800</v>
       </c>
       <c r="G60" s="3">
-        <v>217900</v>
+        <v>224800</v>
       </c>
       <c r="H60" s="3">
-        <v>73300</v>
+        <v>75600</v>
       </c>
       <c r="I60" s="3">
-        <v>39900</v>
+        <v>41200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>67700</v>
+        <v>69900</v>
       </c>
       <c r="E61" s="3">
-        <v>136100</v>
+        <v>140400</v>
       </c>
       <c r="F61" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="G61" s="3">
-        <v>65800</v>
+        <v>67900</v>
       </c>
       <c r="H61" s="3">
-        <v>24400</v>
+        <v>25100</v>
       </c>
       <c r="I61" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>46700</v>
+        <v>48200</v>
       </c>
       <c r="F62" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
       </c>
       <c r="H62" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>550700</v>
+        <v>568200</v>
       </c>
       <c r="E66" s="3">
-        <v>524900</v>
+        <v>541600</v>
       </c>
       <c r="F66" s="3">
-        <v>453600</v>
+        <v>468000</v>
       </c>
       <c r="G66" s="3">
-        <v>285300</v>
+        <v>294300</v>
       </c>
       <c r="H66" s="3">
-        <v>106200</v>
+        <v>109500</v>
       </c>
       <c r="I66" s="3">
-        <v>72300</v>
+        <v>74500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>548700</v>
+        <v>566100</v>
       </c>
       <c r="I70" s="3">
-        <v>548700</v>
+        <v>566100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>416400</v>
+        <v>429600</v>
       </c>
       <c r="E72" s="3">
-        <v>550600</v>
+        <v>568100</v>
       </c>
       <c r="F72" s="3">
-        <v>118700</v>
+        <v>122400</v>
       </c>
       <c r="G72" s="3">
-        <v>97200</v>
+        <v>100300</v>
       </c>
       <c r="H72" s="3">
-        <v>-377400</v>
+        <v>-389400</v>
       </c>
       <c r="I72" s="3">
-        <v>-522100</v>
+        <v>-538700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>973100</v>
+        <v>1004000</v>
       </c>
       <c r="E76" s="3">
-        <v>1165800</v>
+        <v>1202800</v>
       </c>
       <c r="F76" s="3">
-        <v>762500</v>
+        <v>786700</v>
       </c>
       <c r="G76" s="3">
-        <v>731000</v>
+        <v>754300</v>
       </c>
       <c r="H76" s="3">
-        <v>-376900</v>
+        <v>-388800</v>
       </c>
       <c r="I76" s="3">
-        <v>-521400</v>
+        <v>-538000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3249,19 +3249,19 @@
         <v>-1200</v>
       </c>
       <c r="E81" s="3">
-        <v>469000</v>
+        <v>483900</v>
       </c>
       <c r="F81" s="3">
-        <v>54400</v>
+        <v>56100</v>
       </c>
       <c r="G81" s="3">
-        <v>42100</v>
+        <v>43500</v>
       </c>
       <c r="H81" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="I81" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3305,7 +3305,7 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F83" s="3">
         <v>1500</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-56300</v>
+        <v>-58100</v>
       </c>
       <c r="E89" s="3">
-        <v>-86500</v>
+        <v>-89300</v>
       </c>
       <c r="F89" s="3">
-        <v>58900</v>
+        <v>60700</v>
       </c>
       <c r="G89" s="3">
-        <v>25700</v>
+        <v>26500</v>
       </c>
       <c r="H89" s="3">
-        <v>82000</v>
+        <v>84600</v>
       </c>
       <c r="I89" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>370400</v>
+        <v>382200</v>
       </c>
       <c r="E94" s="3">
-        <v>-68700</v>
+        <v>-70900</v>
       </c>
       <c r="F94" s="3">
-        <v>-166800</v>
+        <v>-172100</v>
       </c>
       <c r="G94" s="3">
-        <v>-228100</v>
+        <v>-235300</v>
       </c>
       <c r="H94" s="3">
-        <v>-22700</v>
+        <v>-23400</v>
       </c>
       <c r="I94" s="3">
-        <v>-37900</v>
+        <v>-39100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133000</v>
+        <v>-137200</v>
       </c>
       <c r="E96" s="3">
-        <v>-37200</v>
+        <v>-38400</v>
       </c>
       <c r="F96" s="3">
-        <v>-35800</v>
+        <v>-36900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-270900</v>
+        <v>-279500</v>
       </c>
       <c r="E100" s="3">
-        <v>-53000</v>
+        <v>-54700</v>
       </c>
       <c r="F100" s="3">
-        <v>101700</v>
+        <v>104900</v>
       </c>
       <c r="G100" s="3">
-        <v>569500</v>
+        <v>587600</v>
       </c>
       <c r="H100" s="3">
-        <v>95400</v>
+        <v>98500</v>
       </c>
       <c r="I100" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="H101" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3999,19 +3999,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41100</v>
+        <v>42400</v>
       </c>
       <c r="E102" s="3">
-        <v>-213300</v>
+        <v>-220000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G102" s="3">
-        <v>382500</v>
+        <v>394600</v>
       </c>
       <c r="H102" s="3">
-        <v>151300</v>
+        <v>156100</v>
       </c>
       <c r="I102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,32 +717,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>563200</v>
+        <v>281500</v>
       </c>
       <c r="E8" s="3">
-        <v>294800</v>
+        <v>557500</v>
       </c>
       <c r="F8" s="3">
-        <v>206800</v>
+        <v>291800</v>
       </c>
       <c r="G8" s="3">
-        <v>156700</v>
+        <v>204700</v>
       </c>
       <c r="H8" s="3">
-        <v>151100</v>
+        <v>155100</v>
       </c>
       <c r="I8" s="3">
-        <v>62400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>149600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>61700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -756,32 +759,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>407600</v>
+        <v>251500</v>
       </c>
       <c r="E9" s="3">
-        <v>138700</v>
+        <v>403500</v>
       </c>
       <c r="F9" s="3">
-        <v>60700</v>
+        <v>137300</v>
       </c>
       <c r="G9" s="3">
-        <v>58700</v>
+        <v>60000</v>
       </c>
       <c r="H9" s="3">
-        <v>55400</v>
+        <v>58100</v>
       </c>
       <c r="I9" s="3">
-        <v>24400</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>54900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>24200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -795,32 +801,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>155600</v>
+        <v>30100</v>
       </c>
       <c r="E10" s="3">
-        <v>156100</v>
+        <v>154000</v>
       </c>
       <c r="F10" s="3">
-        <v>146200</v>
+        <v>154500</v>
       </c>
       <c r="G10" s="3">
-        <v>98000</v>
+        <v>144700</v>
       </c>
       <c r="H10" s="3">
-        <v>95700</v>
+        <v>97000</v>
       </c>
       <c r="I10" s="3">
-        <v>37900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>94700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>37600</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,32 +864,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10100</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G12" s="3">
         <v>8200</v>
       </c>
-      <c r="G12" s="3">
-        <v>6700</v>
-      </c>
       <c r="H12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I12" s="3">
         <v>2800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,33 +945,36 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28400</v>
+        <v>42600</v>
       </c>
       <c r="E14" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I14" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,9 +987,12 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,31 +1047,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>566600</v>
+        <v>416200</v>
       </c>
       <c r="E17" s="3">
-        <v>249100</v>
+        <v>560800</v>
       </c>
       <c r="F17" s="3">
-        <v>160400</v>
+        <v>246500</v>
       </c>
       <c r="G17" s="3">
-        <v>117000</v>
+        <v>158700</v>
       </c>
       <c r="H17" s="3">
-        <v>83600</v>
+        <v>115800</v>
       </c>
       <c r="I17" s="3">
-        <v>35900</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>82800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>35500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1060,32 +1086,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-134600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
-        <v>45700</v>
-      </c>
       <c r="F18" s="3">
-        <v>46400</v>
+        <v>45200</v>
       </c>
       <c r="G18" s="3">
-        <v>39700</v>
+        <v>46000</v>
       </c>
       <c r="H18" s="3">
-        <v>67500</v>
+        <v>39300</v>
       </c>
       <c r="I18" s="3">
-        <v>26500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>66800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>26200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,32 +1149,33 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7200</v>
+        <v>12700</v>
       </c>
       <c r="E20" s="3">
-        <v>492300</v>
+        <v>7100</v>
       </c>
       <c r="F20" s="3">
-        <v>25600</v>
+        <v>487300</v>
       </c>
       <c r="G20" s="3">
-        <v>19900</v>
+        <v>25300</v>
       </c>
       <c r="H20" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,32 +1188,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5100</v>
+        <v>-121000</v>
       </c>
       <c r="E21" s="3">
-        <v>539400</v>
+        <v>5000</v>
       </c>
       <c r="F21" s="3">
-        <v>73500</v>
+        <v>533900</v>
       </c>
       <c r="G21" s="3">
-        <v>60600</v>
+        <v>72800</v>
       </c>
       <c r="H21" s="3">
-        <v>69600</v>
+        <v>60000</v>
       </c>
       <c r="I21" s="3">
-        <v>27100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>26800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1194,33 +1230,36 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
-        <v>1900</v>
-      </c>
       <c r="I22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,32 +1272,35 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1800</v>
+        <v>-124300</v>
       </c>
       <c r="E23" s="3">
-        <v>537600</v>
+        <v>1700</v>
       </c>
       <c r="F23" s="3">
-        <v>70100</v>
+        <v>532100</v>
       </c>
       <c r="G23" s="3">
-        <v>56900</v>
+        <v>69300</v>
       </c>
       <c r="H23" s="3">
-        <v>67300</v>
+        <v>56300</v>
       </c>
       <c r="I23" s="3">
-        <v>26800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>66600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1272,32 +1314,35 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
-        <v>53100</v>
-      </c>
       <c r="F24" s="3">
-        <v>11900</v>
+        <v>52600</v>
       </c>
       <c r="G24" s="3">
-        <v>12800</v>
+        <v>11800</v>
       </c>
       <c r="H24" s="3">
-        <v>17100</v>
+        <v>12700</v>
       </c>
       <c r="I24" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>17000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7500</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,32 +1398,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
-        <v>484500</v>
-      </c>
       <c r="F26" s="3">
-        <v>58100</v>
+        <v>479500</v>
       </c>
       <c r="G26" s="3">
-        <v>44100</v>
+        <v>57600</v>
       </c>
       <c r="H26" s="3">
-        <v>50100</v>
+        <v>43600</v>
       </c>
       <c r="I26" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>49600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>19000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1389,32 +1440,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
-        <v>483900</v>
-      </c>
       <c r="F27" s="3">
-        <v>56100</v>
+        <v>479000</v>
       </c>
       <c r="G27" s="3">
-        <v>43500</v>
+        <v>55600</v>
       </c>
       <c r="H27" s="3">
-        <v>24600</v>
+        <v>43000</v>
       </c>
       <c r="I27" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>24400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>9200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,33 +1650,36 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7200</v>
+        <v>-12700</v>
       </c>
       <c r="E32" s="3">
-        <v>-492300</v>
+        <v>-7100</v>
       </c>
       <c r="F32" s="3">
-        <v>-25600</v>
+        <v>-487300</v>
       </c>
       <c r="G32" s="3">
-        <v>-19900</v>
+        <v>-25300</v>
       </c>
       <c r="H32" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,32 +1692,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
-        <v>483900</v>
-      </c>
       <c r="F33" s="3">
-        <v>56100</v>
+        <v>479000</v>
       </c>
       <c r="G33" s="3">
-        <v>43500</v>
+        <v>55600</v>
       </c>
       <c r="H33" s="3">
-        <v>24600</v>
+        <v>43000</v>
       </c>
       <c r="I33" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>24400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>9200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,32 +1776,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
-        <v>483900</v>
-      </c>
       <c r="F35" s="3">
-        <v>56100</v>
+        <v>479000</v>
       </c>
       <c r="G35" s="3">
-        <v>43500</v>
+        <v>55600</v>
       </c>
       <c r="H35" s="3">
-        <v>24600</v>
+        <v>43000</v>
       </c>
       <c r="I35" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>24400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1740,38 +1818,41 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,31 +1904,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>206100</v>
+        <v>53900</v>
       </c>
       <c r="E41" s="3">
-        <v>204900</v>
+        <v>204000</v>
       </c>
       <c r="F41" s="3">
-        <v>287600</v>
+        <v>202800</v>
       </c>
       <c r="G41" s="3">
-        <v>418400</v>
+        <v>284600</v>
       </c>
       <c r="H41" s="3">
-        <v>115400</v>
+        <v>414100</v>
       </c>
       <c r="I41" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>114200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1857,32 +1943,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>373300</v>
+        <v>276000</v>
       </c>
       <c r="E42" s="3">
-        <v>623600</v>
+        <v>369400</v>
       </c>
       <c r="F42" s="3">
-        <v>85800</v>
+        <v>617300</v>
       </c>
       <c r="G42" s="3">
-        <v>38200</v>
+        <v>84900</v>
       </c>
       <c r="H42" s="3">
-        <v>9000</v>
+        <v>37800</v>
       </c>
       <c r="I42" s="3">
-        <v>15200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>8900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>15100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1896,32 +1985,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>368900</v>
+        <v>263000</v>
       </c>
       <c r="E43" s="3">
-        <v>368100</v>
+        <v>365100</v>
       </c>
       <c r="F43" s="3">
-        <v>266600</v>
+        <v>364400</v>
       </c>
       <c r="G43" s="3">
-        <v>175100</v>
+        <v>263900</v>
       </c>
       <c r="H43" s="3">
-        <v>22300</v>
+        <v>173400</v>
       </c>
       <c r="I43" s="3">
-        <v>20000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>22100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>19800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1935,9 +2027,12 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,33 +2069,36 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>144400</v>
+        <v>184800</v>
       </c>
       <c r="E45" s="3">
-        <v>81400</v>
+        <v>142900</v>
       </c>
       <c r="F45" s="3">
-        <v>155800</v>
+        <v>80500</v>
       </c>
       <c r="G45" s="3">
-        <v>51200</v>
+        <v>154200</v>
       </c>
       <c r="H45" s="3">
-        <v>12500</v>
+        <v>50600</v>
       </c>
       <c r="I45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,32 +2111,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1092700</v>
+        <v>777600</v>
       </c>
       <c r="E46" s="3">
-        <v>1278100</v>
+        <v>1081500</v>
       </c>
       <c r="F46" s="3">
-        <v>795800</v>
+        <v>1265000</v>
       </c>
       <c r="G46" s="3">
-        <v>682900</v>
+        <v>787600</v>
       </c>
       <c r="H46" s="3">
-        <v>159200</v>
+        <v>675900</v>
       </c>
       <c r="I46" s="3">
-        <v>43400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>157500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>42900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2052,32 +2153,35 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>219000</v>
+        <v>61600</v>
       </c>
       <c r="E47" s="3">
-        <v>249300</v>
+        <v>216700</v>
       </c>
       <c r="F47" s="3">
-        <v>288500</v>
+        <v>246800</v>
       </c>
       <c r="G47" s="3">
-        <v>226300</v>
+        <v>285500</v>
       </c>
       <c r="H47" s="3">
-        <v>69600</v>
+        <v>224000</v>
       </c>
       <c r="I47" s="3">
-        <v>49300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>48800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2091,33 +2195,36 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,32 +2237,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="E49" s="3">
-        <v>27300</v>
+        <v>27700</v>
       </c>
       <c r="F49" s="3">
-        <v>27300</v>
+        <v>27000</v>
       </c>
       <c r="G49" s="3">
-        <v>21100</v>
+        <v>27000</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>20900</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,32 +2363,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>229800</v>
+        <v>116600</v>
       </c>
       <c r="E52" s="3">
-        <v>188200</v>
+        <v>227500</v>
       </c>
       <c r="F52" s="3">
-        <v>141100</v>
+        <v>186300</v>
       </c>
       <c r="G52" s="3">
-        <v>115700</v>
+        <v>139700</v>
       </c>
       <c r="H52" s="3">
-        <v>56400</v>
+        <v>114500</v>
       </c>
       <c r="I52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>55800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>9100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,32 +2447,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1572200</v>
+        <v>997400</v>
       </c>
       <c r="E54" s="3">
-        <v>1744400</v>
+        <v>1556100</v>
       </c>
       <c r="F54" s="3">
-        <v>1254700</v>
+        <v>1726500</v>
       </c>
       <c r="G54" s="3">
-        <v>1048600</v>
+        <v>1241900</v>
       </c>
       <c r="H54" s="3">
-        <v>286800</v>
+        <v>1037900</v>
       </c>
       <c r="I54" s="3">
-        <v>102700</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>283900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>101600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,32 +2528,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,32 +2567,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>235800</v>
+        <v>147500</v>
       </c>
       <c r="E58" s="3">
-        <v>227600</v>
+        <v>233400</v>
       </c>
       <c r="F58" s="3">
-        <v>330800</v>
+        <v>225300</v>
       </c>
       <c r="G58" s="3">
-        <v>161900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>327400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>160200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2473,35 +2606,38 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>254500</v>
+        <v>211900</v>
       </c>
       <c r="E59" s="3">
-        <v>124600</v>
+        <v>251900</v>
       </c>
       <c r="F59" s="3">
-        <v>85800</v>
+        <v>123300</v>
       </c>
       <c r="G59" s="3">
-        <v>60500</v>
+        <v>85000</v>
       </c>
       <c r="H59" s="3">
-        <v>74200</v>
+        <v>59900</v>
       </c>
       <c r="I59" s="3">
-        <v>40500</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>73500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>40100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2515,32 +2651,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>490900</v>
+        <v>359800</v>
       </c>
       <c r="E60" s="3">
-        <v>352900</v>
+        <v>485800</v>
       </c>
       <c r="F60" s="3">
-        <v>417800</v>
+        <v>349300</v>
       </c>
       <c r="G60" s="3">
-        <v>224800</v>
+        <v>413500</v>
       </c>
       <c r="H60" s="3">
-        <v>75600</v>
+        <v>222500</v>
       </c>
       <c r="I60" s="3">
-        <v>41200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>74800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>40800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2554,32 +2693,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>69900</v>
+        <v>10800</v>
       </c>
       <c r="E61" s="3">
-        <v>140400</v>
+        <v>69100</v>
       </c>
       <c r="F61" s="3">
-        <v>43300</v>
+        <v>139000</v>
       </c>
       <c r="G61" s="3">
-        <v>67900</v>
+        <v>42900</v>
       </c>
       <c r="H61" s="3">
-        <v>25100</v>
+        <v>67200</v>
       </c>
       <c r="I61" s="3">
-        <v>27200</v>
+        <v>24900</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>26900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2593,33 +2735,36 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E62" s="3">
         <v>7500</v>
       </c>
-      <c r="E62" s="3">
-        <v>48200</v>
-      </c>
       <c r="F62" s="3">
+        <v>47700</v>
+      </c>
+      <c r="G62" s="3">
         <v>4900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,32 +2903,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>568200</v>
+        <v>383000</v>
       </c>
       <c r="E66" s="3">
-        <v>541600</v>
+        <v>562400</v>
       </c>
       <c r="F66" s="3">
-        <v>468000</v>
+        <v>536000</v>
       </c>
       <c r="G66" s="3">
-        <v>294300</v>
+        <v>463200</v>
       </c>
       <c r="H66" s="3">
-        <v>109500</v>
+        <v>291300</v>
       </c>
       <c r="I66" s="3">
-        <v>74500</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>108400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>73800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>566100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>566100</v>
+        <v>560300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>560300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,32 +3131,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>429600</v>
+        <v>1300</v>
       </c>
       <c r="E72" s="3">
-        <v>568100</v>
+        <v>425200</v>
       </c>
       <c r="F72" s="3">
-        <v>122400</v>
+        <v>562300</v>
       </c>
       <c r="G72" s="3">
-        <v>100300</v>
+        <v>121200</v>
       </c>
       <c r="H72" s="3">
-        <v>-389400</v>
+        <v>99200</v>
       </c>
       <c r="I72" s="3">
-        <v>-538700</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-385400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-533200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,32 +3299,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1004000</v>
+        <v>614400</v>
       </c>
       <c r="E76" s="3">
-        <v>1202800</v>
+        <v>993700</v>
       </c>
       <c r="F76" s="3">
-        <v>786700</v>
+        <v>1190500</v>
       </c>
       <c r="G76" s="3">
-        <v>754300</v>
+        <v>778700</v>
       </c>
       <c r="H76" s="3">
-        <v>-388800</v>
+        <v>746500</v>
       </c>
       <c r="I76" s="3">
-        <v>-538000</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-384900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-532500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,38 +3383,41 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,32 +3430,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
-        <v>483900</v>
-      </c>
       <c r="F81" s="3">
-        <v>56100</v>
+        <v>479000</v>
       </c>
       <c r="G81" s="3">
-        <v>43500</v>
+        <v>55600</v>
       </c>
       <c r="H81" s="3">
-        <v>24600</v>
+        <v>43000</v>
       </c>
       <c r="I81" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>24400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,32 +3493,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,32 +3742,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-58100</v>
+        <v>-80700</v>
       </c>
       <c r="E89" s="3">
-        <v>-89300</v>
+        <v>-57500</v>
       </c>
       <c r="F89" s="3">
-        <v>60700</v>
+        <v>-88400</v>
       </c>
       <c r="G89" s="3">
-        <v>26500</v>
+        <v>60100</v>
       </c>
       <c r="H89" s="3">
-        <v>84600</v>
+        <v>26300</v>
       </c>
       <c r="I89" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>83800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>11800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,32 +3805,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6200</v>
-      </c>
       <c r="G91" s="3">
-        <v>-2100</v>
+        <v>-6100</v>
       </c>
       <c r="H91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,32 +3928,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>382200</v>
+        <v>278500</v>
       </c>
       <c r="E94" s="3">
-        <v>-70900</v>
+        <v>378300</v>
       </c>
       <c r="F94" s="3">
-        <v>-172100</v>
+        <v>-70200</v>
       </c>
       <c r="G94" s="3">
-        <v>-235300</v>
+        <v>-170400</v>
       </c>
       <c r="H94" s="3">
-        <v>-23400</v>
+        <v>-232900</v>
       </c>
       <c r="I94" s="3">
-        <v>-39100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-23200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-38700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,32 +3991,33 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-137200</v>
+        <v>-266000</v>
       </c>
       <c r="E96" s="3">
-        <v>-38400</v>
+        <v>-135800</v>
       </c>
       <c r="F96" s="3">
-        <v>-36900</v>
+        <v>-38000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3900</v>
+        <v>-36500</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,32 +4156,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-279500</v>
+        <v>-425100</v>
       </c>
       <c r="E100" s="3">
-        <v>-54700</v>
+        <v>-276700</v>
       </c>
       <c r="F100" s="3">
-        <v>104900</v>
+        <v>-54100</v>
       </c>
       <c r="G100" s="3">
-        <v>587600</v>
+        <v>103800</v>
       </c>
       <c r="H100" s="3">
-        <v>98500</v>
+        <v>581600</v>
       </c>
       <c r="I100" s="3">
-        <v>26900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>97500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>26600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3953,32 +4198,35 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>38400</v>
       </c>
       <c r="E101" s="3">
-        <v>-5200</v>
+        <v>-2100</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>-5100</v>
       </c>
       <c r="G101" s="3">
-        <v>15900</v>
+        <v>1600</v>
       </c>
       <c r="H101" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3992,33 +4240,36 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42400</v>
+        <v>-188700</v>
       </c>
       <c r="E102" s="3">
-        <v>-220000</v>
+        <v>42000</v>
       </c>
       <c r="F102" s="3">
+        <v>-217800</v>
+      </c>
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
-        <v>394600</v>
-      </c>
       <c r="H102" s="3">
-        <v>156100</v>
+        <v>390600</v>
       </c>
       <c r="I102" s="3">
+        <v>154500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>281500</v>
+        <v>272900</v>
       </c>
       <c r="E8" s="3">
-        <v>557500</v>
+        <v>540300</v>
       </c>
       <c r="F8" s="3">
-        <v>291800</v>
+        <v>282800</v>
       </c>
       <c r="G8" s="3">
-        <v>204700</v>
+        <v>198400</v>
       </c>
       <c r="H8" s="3">
-        <v>155100</v>
+        <v>150400</v>
       </c>
       <c r="I8" s="3">
-        <v>149600</v>
+        <v>145000</v>
       </c>
       <c r="J8" s="3">
-        <v>61700</v>
+        <v>59800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>251500</v>
+        <v>243700</v>
       </c>
       <c r="E9" s="3">
-        <v>403500</v>
+        <v>391100</v>
       </c>
       <c r="F9" s="3">
-        <v>137300</v>
+        <v>133100</v>
       </c>
       <c r="G9" s="3">
-        <v>60000</v>
+        <v>58200</v>
       </c>
       <c r="H9" s="3">
-        <v>58100</v>
+        <v>56300</v>
       </c>
       <c r="I9" s="3">
-        <v>54900</v>
+        <v>53200</v>
       </c>
       <c r="J9" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>30100</v>
+        <v>29100</v>
       </c>
       <c r="E10" s="3">
-        <v>154000</v>
+        <v>149300</v>
       </c>
       <c r="F10" s="3">
-        <v>154500</v>
+        <v>149700</v>
       </c>
       <c r="G10" s="3">
-        <v>144700</v>
+        <v>140200</v>
       </c>
       <c r="H10" s="3">
-        <v>97000</v>
+        <v>94000</v>
       </c>
       <c r="I10" s="3">
-        <v>94700</v>
+        <v>91800</v>
       </c>
       <c r="J10" s="3">
-        <v>37600</v>
+        <v>36400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E12" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="F12" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="H12" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="I12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
@@ -955,22 +955,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="E14" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>416200</v>
+        <v>403400</v>
       </c>
       <c r="E17" s="3">
-        <v>560800</v>
+        <v>543500</v>
       </c>
       <c r="F17" s="3">
-        <v>246500</v>
+        <v>238900</v>
       </c>
       <c r="G17" s="3">
-        <v>158700</v>
+        <v>153900</v>
       </c>
       <c r="H17" s="3">
-        <v>115800</v>
+        <v>112200</v>
       </c>
       <c r="I17" s="3">
-        <v>82800</v>
+        <v>80200</v>
       </c>
       <c r="J17" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-134600</v>
+        <v>-130500</v>
       </c>
       <c r="E18" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="F18" s="3">
-        <v>45200</v>
+        <v>43900</v>
       </c>
       <c r="G18" s="3">
-        <v>46000</v>
+        <v>44500</v>
       </c>
       <c r="H18" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="I18" s="3">
-        <v>66800</v>
+        <v>64800</v>
       </c>
       <c r="J18" s="3">
-        <v>26200</v>
+        <v>25400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="E20" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="F20" s="3">
-        <v>487300</v>
+        <v>472300</v>
       </c>
       <c r="G20" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="H20" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="I20" s="3">
         <v>1600</v>
       </c>
       <c r="J20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-121000</v>
+        <v>-117200</v>
       </c>
       <c r="E21" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F21" s="3">
-        <v>533900</v>
+        <v>517400</v>
       </c>
       <c r="G21" s="3">
-        <v>72800</v>
+        <v>70500</v>
       </c>
       <c r="H21" s="3">
-        <v>60000</v>
+        <v>58200</v>
       </c>
       <c r="I21" s="3">
-        <v>68900</v>
+        <v>66700</v>
       </c>
       <c r="J21" s="3">
-        <v>26800</v>
+        <v>26000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,10 +1240,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
@@ -1252,7 +1252,7 @@
         <v>1900</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I22" s="3">
         <v>1800</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-124300</v>
+        <v>-120500</v>
       </c>
       <c r="E23" s="3">
         <v>1700</v>
       </c>
       <c r="F23" s="3">
-        <v>532100</v>
+        <v>515700</v>
       </c>
       <c r="G23" s="3">
-        <v>69300</v>
+        <v>67200</v>
       </c>
       <c r="H23" s="3">
-        <v>56300</v>
+        <v>54600</v>
       </c>
       <c r="I23" s="3">
-        <v>66600</v>
+        <v>64500</v>
       </c>
       <c r="J23" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33600</v>
+        <v>32600</v>
       </c>
       <c r="E24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F24" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="G24" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="H24" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="I24" s="3">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="J24" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-158000</v>
+        <v>-153100</v>
       </c>
       <c r="E26" s="3">
         <v>-1200</v>
       </c>
       <c r="F26" s="3">
-        <v>479500</v>
+        <v>464800</v>
       </c>
       <c r="G26" s="3">
-        <v>57600</v>
+        <v>55800</v>
       </c>
       <c r="H26" s="3">
-        <v>43600</v>
+        <v>42300</v>
       </c>
       <c r="I26" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="J26" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-158000</v>
+        <v>-153100</v>
       </c>
       <c r="E27" s="3">
         <v>-1200</v>
       </c>
       <c r="F27" s="3">
-        <v>479000</v>
+        <v>464300</v>
       </c>
       <c r="G27" s="3">
-        <v>55600</v>
+        <v>53900</v>
       </c>
       <c r="H27" s="3">
-        <v>43000</v>
+        <v>41700</v>
       </c>
       <c r="I27" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="J27" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="F32" s="3">
-        <v>-487300</v>
+        <v>-472300</v>
       </c>
       <c r="G32" s="3">
-        <v>-25300</v>
+        <v>-24500</v>
       </c>
       <c r="H32" s="3">
-        <v>-19700</v>
+        <v>-19100</v>
       </c>
       <c r="I32" s="3">
         <v>-1600</v>
       </c>
       <c r="J32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-158000</v>
+        <v>-153100</v>
       </c>
       <c r="E33" s="3">
         <v>-1200</v>
       </c>
       <c r="F33" s="3">
-        <v>479000</v>
+        <v>464300</v>
       </c>
       <c r="G33" s="3">
-        <v>55600</v>
+        <v>53900</v>
       </c>
       <c r="H33" s="3">
-        <v>43000</v>
+        <v>41700</v>
       </c>
       <c r="I33" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="J33" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-158000</v>
+        <v>-153100</v>
       </c>
       <c r="E35" s="3">
         <v>-1200</v>
       </c>
       <c r="F35" s="3">
-        <v>479000</v>
+        <v>464300</v>
       </c>
       <c r="G35" s="3">
-        <v>55600</v>
+        <v>53900</v>
       </c>
       <c r="H35" s="3">
-        <v>43000</v>
+        <v>41700</v>
       </c>
       <c r="I35" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="J35" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="E41" s="3">
-        <v>204000</v>
+        <v>197700</v>
       </c>
       <c r="F41" s="3">
-        <v>202800</v>
+        <v>196600</v>
       </c>
       <c r="G41" s="3">
-        <v>284600</v>
+        <v>275900</v>
       </c>
       <c r="H41" s="3">
-        <v>414100</v>
+        <v>401300</v>
       </c>
       <c r="I41" s="3">
-        <v>114200</v>
+        <v>110700</v>
       </c>
       <c r="J41" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>276000</v>
+        <v>267500</v>
       </c>
       <c r="E42" s="3">
-        <v>369400</v>
+        <v>358100</v>
       </c>
       <c r="F42" s="3">
-        <v>617300</v>
+        <v>598300</v>
       </c>
       <c r="G42" s="3">
-        <v>84900</v>
+        <v>82300</v>
       </c>
       <c r="H42" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="I42" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="J42" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>263000</v>
+        <v>254900</v>
       </c>
       <c r="E43" s="3">
-        <v>365100</v>
+        <v>353900</v>
       </c>
       <c r="F43" s="3">
-        <v>364400</v>
+        <v>353200</v>
       </c>
       <c r="G43" s="3">
-        <v>263900</v>
+        <v>255700</v>
       </c>
       <c r="H43" s="3">
-        <v>173400</v>
+        <v>168000</v>
       </c>
       <c r="I43" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="J43" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>184800</v>
+        <v>179100</v>
       </c>
       <c r="E45" s="3">
-        <v>142900</v>
+        <v>138500</v>
       </c>
       <c r="F45" s="3">
-        <v>80500</v>
+        <v>78000</v>
       </c>
       <c r="G45" s="3">
-        <v>154200</v>
+        <v>149500</v>
       </c>
       <c r="H45" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="I45" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="J45" s="3">
         <v>1700</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>777600</v>
+        <v>753700</v>
       </c>
       <c r="E46" s="3">
-        <v>1081500</v>
+        <v>1048200</v>
       </c>
       <c r="F46" s="3">
-        <v>1265000</v>
+        <v>1226100</v>
       </c>
       <c r="G46" s="3">
-        <v>787600</v>
+        <v>763400</v>
       </c>
       <c r="H46" s="3">
-        <v>675900</v>
+        <v>655100</v>
       </c>
       <c r="I46" s="3">
-        <v>157500</v>
+        <v>152700</v>
       </c>
       <c r="J46" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61600</v>
+        <v>59700</v>
       </c>
       <c r="E47" s="3">
-        <v>216700</v>
+        <v>210100</v>
       </c>
       <c r="F47" s="3">
-        <v>246800</v>
+        <v>239200</v>
       </c>
       <c r="G47" s="3">
-        <v>285500</v>
+        <v>276700</v>
       </c>
       <c r="H47" s="3">
-        <v>224000</v>
+        <v>217100</v>
       </c>
       <c r="I47" s="3">
-        <v>68900</v>
+        <v>66700</v>
       </c>
       <c r="J47" s="3">
-        <v>48800</v>
+        <v>47300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="E48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2247,19 +2247,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="E49" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="F49" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="G49" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="H49" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E52" s="3">
-        <v>227500</v>
+        <v>220500</v>
       </c>
       <c r="F52" s="3">
-        <v>186300</v>
+        <v>180600</v>
       </c>
       <c r="G52" s="3">
-        <v>139700</v>
+        <v>135400</v>
       </c>
       <c r="H52" s="3">
-        <v>114500</v>
+        <v>111000</v>
       </c>
       <c r="I52" s="3">
-        <v>55800</v>
+        <v>54100</v>
       </c>
       <c r="J52" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>997400</v>
+        <v>966700</v>
       </c>
       <c r="E54" s="3">
-        <v>1556100</v>
+        <v>1508300</v>
       </c>
       <c r="F54" s="3">
-        <v>1726500</v>
+        <v>1673500</v>
       </c>
       <c r="G54" s="3">
-        <v>1241900</v>
+        <v>1203700</v>
       </c>
       <c r="H54" s="3">
-        <v>1037900</v>
+        <v>1006000</v>
       </c>
       <c r="I54" s="3">
-        <v>283900</v>
+        <v>275100</v>
       </c>
       <c r="J54" s="3">
-        <v>101600</v>
+        <v>98500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2544,10 +2544,10 @@
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I57" s="3">
         <v>1300</v>
@@ -2577,19 +2577,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>147500</v>
+        <v>143000</v>
       </c>
       <c r="E58" s="3">
-        <v>233400</v>
+        <v>226200</v>
       </c>
       <c r="F58" s="3">
-        <v>225300</v>
+        <v>218300</v>
       </c>
       <c r="G58" s="3">
-        <v>327400</v>
+        <v>317300</v>
       </c>
       <c r="H58" s="3">
-        <v>160200</v>
+        <v>155300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>211900</v>
+        <v>205400</v>
       </c>
       <c r="E59" s="3">
-        <v>251900</v>
+        <v>244200</v>
       </c>
       <c r="F59" s="3">
-        <v>123300</v>
+        <v>119500</v>
       </c>
       <c r="G59" s="3">
-        <v>85000</v>
+        <v>82400</v>
       </c>
       <c r="H59" s="3">
-        <v>59900</v>
+        <v>58100</v>
       </c>
       <c r="I59" s="3">
-        <v>73500</v>
+        <v>71200</v>
       </c>
       <c r="J59" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>359800</v>
+        <v>348700</v>
       </c>
       <c r="E60" s="3">
-        <v>485800</v>
+        <v>470900</v>
       </c>
       <c r="F60" s="3">
-        <v>349300</v>
+        <v>338600</v>
       </c>
       <c r="G60" s="3">
-        <v>413500</v>
+        <v>400800</v>
       </c>
       <c r="H60" s="3">
-        <v>222500</v>
+        <v>215700</v>
       </c>
       <c r="I60" s="3">
-        <v>74800</v>
+        <v>72500</v>
       </c>
       <c r="J60" s="3">
-        <v>40800</v>
+        <v>39500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="E61" s="3">
-        <v>69100</v>
+        <v>67000</v>
       </c>
       <c r="F61" s="3">
-        <v>139000</v>
+        <v>134700</v>
       </c>
       <c r="G61" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="H61" s="3">
-        <v>67200</v>
+        <v>65100</v>
       </c>
       <c r="I61" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="J61" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="E62" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="F62" s="3">
-        <v>47700</v>
+        <v>46200</v>
       </c>
       <c r="G62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="3">
         <v>4900</v>
       </c>
-      <c r="H62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5100</v>
-      </c>
       <c r="J62" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>383000</v>
+        <v>371200</v>
       </c>
       <c r="E66" s="3">
-        <v>562400</v>
+        <v>545100</v>
       </c>
       <c r="F66" s="3">
-        <v>536000</v>
+        <v>519500</v>
       </c>
       <c r="G66" s="3">
-        <v>463200</v>
+        <v>449000</v>
       </c>
       <c r="H66" s="3">
-        <v>291300</v>
+        <v>282400</v>
       </c>
       <c r="I66" s="3">
-        <v>108400</v>
+        <v>105100</v>
       </c>
       <c r="J66" s="3">
-        <v>73800</v>
+        <v>71500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>560300</v>
+        <v>543100</v>
       </c>
       <c r="J70" s="3">
-        <v>560300</v>
+        <v>543100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3144,22 +3144,22 @@
         <v>1300</v>
       </c>
       <c r="E72" s="3">
-        <v>425200</v>
+        <v>412200</v>
       </c>
       <c r="F72" s="3">
-        <v>562300</v>
+        <v>545000</v>
       </c>
       <c r="G72" s="3">
-        <v>121200</v>
+        <v>117500</v>
       </c>
       <c r="H72" s="3">
-        <v>99200</v>
+        <v>96200</v>
       </c>
       <c r="I72" s="3">
-        <v>-385400</v>
+        <v>-373600</v>
       </c>
       <c r="J72" s="3">
-        <v>-533200</v>
+        <v>-516800</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>614400</v>
+        <v>595500</v>
       </c>
       <c r="E76" s="3">
-        <v>993700</v>
+        <v>963200</v>
       </c>
       <c r="F76" s="3">
-        <v>1190500</v>
+        <v>1153900</v>
       </c>
       <c r="G76" s="3">
-        <v>778700</v>
+        <v>754700</v>
       </c>
       <c r="H76" s="3">
-        <v>746500</v>
+        <v>723600</v>
       </c>
       <c r="I76" s="3">
-        <v>-384900</v>
+        <v>-373000</v>
       </c>
       <c r="J76" s="3">
-        <v>-532500</v>
+        <v>-516100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-158000</v>
+        <v>-153100</v>
       </c>
       <c r="E81" s="3">
         <v>-1200</v>
       </c>
       <c r="F81" s="3">
-        <v>479000</v>
+        <v>464300</v>
       </c>
       <c r="G81" s="3">
-        <v>55600</v>
+        <v>53900</v>
       </c>
       <c r="H81" s="3">
-        <v>43000</v>
+        <v>41700</v>
       </c>
       <c r="I81" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="J81" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3500,16 +3500,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
       </c>
       <c r="F83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1500</v>
       </c>
       <c r="H83" s="3">
         <v>1000</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-80700</v>
+        <v>-78200</v>
       </c>
       <c r="E89" s="3">
-        <v>-57500</v>
+        <v>-55700</v>
       </c>
       <c r="F89" s="3">
-        <v>-88400</v>
+        <v>-85600</v>
       </c>
       <c r="G89" s="3">
-        <v>60100</v>
+        <v>58300</v>
       </c>
       <c r="H89" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="I89" s="3">
-        <v>83800</v>
+        <v>81200</v>
       </c>
       <c r="J89" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,22 +3812,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-800</v>
-      </c>
       <c r="G91" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H91" s="3">
         <v>-2000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>278500</v>
+        <v>270000</v>
       </c>
       <c r="E94" s="3">
-        <v>378300</v>
+        <v>366700</v>
       </c>
       <c r="F94" s="3">
-        <v>-70200</v>
+        <v>-68000</v>
       </c>
       <c r="G94" s="3">
-        <v>-170400</v>
+        <v>-165100</v>
       </c>
       <c r="H94" s="3">
-        <v>-232900</v>
+        <v>-225800</v>
       </c>
       <c r="I94" s="3">
-        <v>-23200</v>
+        <v>-22400</v>
       </c>
       <c r="J94" s="3">
-        <v>-38700</v>
+        <v>-37500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3998,19 +3998,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-266000</v>
+        <v>-257800</v>
       </c>
       <c r="E96" s="3">
-        <v>-135800</v>
+        <v>-131600</v>
       </c>
       <c r="F96" s="3">
-        <v>-38000</v>
+        <v>-36800</v>
       </c>
       <c r="G96" s="3">
-        <v>-36500</v>
+        <v>-35400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-425100</v>
+        <v>-412000</v>
       </c>
       <c r="E100" s="3">
-        <v>-276700</v>
+        <v>-268200</v>
       </c>
       <c r="F100" s="3">
-        <v>-54100</v>
+        <v>-52500</v>
       </c>
       <c r="G100" s="3">
-        <v>103800</v>
+        <v>100700</v>
       </c>
       <c r="H100" s="3">
-        <v>581600</v>
+        <v>563700</v>
       </c>
       <c r="I100" s="3">
-        <v>97500</v>
+        <v>94500</v>
       </c>
       <c r="J100" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4208,22 +4208,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="E101" s="3">
         <v>-2100</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="G101" s="3">
         <v>1600</v>
       </c>
       <c r="H101" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="I101" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -4250,22 +4250,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-188700</v>
+        <v>-182900</v>
       </c>
       <c r="E102" s="3">
-        <v>42000</v>
+        <v>40700</v>
       </c>
       <c r="F102" s="3">
-        <v>-217800</v>
+        <v>-211100</v>
       </c>
       <c r="G102" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="H102" s="3">
-        <v>390600</v>
+        <v>378600</v>
       </c>
       <c r="I102" s="3">
-        <v>154500</v>
+        <v>149700</v>
       </c>
       <c r="J102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CANG_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>272900</v>
+        <v>273500</v>
       </c>
       <c r="E8" s="3">
-        <v>540300</v>
+        <v>541500</v>
       </c>
       <c r="F8" s="3">
-        <v>282800</v>
+        <v>283400</v>
       </c>
       <c r="G8" s="3">
-        <v>198400</v>
+        <v>198800</v>
       </c>
       <c r="H8" s="3">
-        <v>150400</v>
+        <v>150700</v>
       </c>
       <c r="I8" s="3">
-        <v>145000</v>
+        <v>145300</v>
       </c>
       <c r="J8" s="3">
-        <v>59800</v>
+        <v>60000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>243700</v>
+        <v>244300</v>
       </c>
       <c r="E9" s="3">
-        <v>391100</v>
+        <v>391900</v>
       </c>
       <c r="F9" s="3">
-        <v>133100</v>
+        <v>133400</v>
       </c>
       <c r="G9" s="3">
-        <v>58200</v>
+        <v>58300</v>
       </c>
       <c r="H9" s="3">
-        <v>56300</v>
+        <v>56500</v>
       </c>
       <c r="I9" s="3">
-        <v>53200</v>
+        <v>53300</v>
       </c>
       <c r="J9" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="E10" s="3">
-        <v>149300</v>
+        <v>149600</v>
       </c>
       <c r="F10" s="3">
-        <v>149700</v>
+        <v>150000</v>
       </c>
       <c r="G10" s="3">
-        <v>140200</v>
+        <v>140500</v>
       </c>
       <c r="H10" s="3">
-        <v>94000</v>
+        <v>94300</v>
       </c>
       <c r="I10" s="3">
-        <v>91800</v>
+        <v>92000</v>
       </c>
       <c r="J10" s="3">
-        <v>36400</v>
+        <v>36500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="E14" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>403400</v>
+        <v>404200</v>
       </c>
       <c r="E17" s="3">
-        <v>543500</v>
+        <v>544700</v>
       </c>
       <c r="F17" s="3">
-        <v>238900</v>
+        <v>239400</v>
       </c>
       <c r="G17" s="3">
-        <v>153900</v>
+        <v>154200</v>
       </c>
       <c r="H17" s="3">
-        <v>112200</v>
+        <v>112500</v>
       </c>
       <c r="I17" s="3">
-        <v>80200</v>
+        <v>80400</v>
       </c>
       <c r="J17" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-130500</v>
+        <v>-130800</v>
       </c>
       <c r="E18" s="3">
         <v>-3200</v>
       </c>
       <c r="F18" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="3">
-        <v>44500</v>
+        <v>44600</v>
       </c>
       <c r="H18" s="3">
-        <v>38100</v>
+        <v>38200</v>
       </c>
       <c r="I18" s="3">
-        <v>64800</v>
+        <v>64900</v>
       </c>
       <c r="J18" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E20" s="3">
         <v>6900</v>
       </c>
       <c r="F20" s="3">
-        <v>472300</v>
+        <v>473300</v>
       </c>
       <c r="G20" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="H20" s="3">
         <v>19100</v>
@@ -1174,7 +1174,7 @@
         <v>1600</v>
       </c>
       <c r="J20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-117200</v>
+        <v>-117500</v>
       </c>
       <c r="E21" s="3">
         <v>4900</v>
       </c>
       <c r="F21" s="3">
-        <v>517400</v>
+        <v>518600</v>
       </c>
       <c r="G21" s="3">
-        <v>70500</v>
+        <v>70700</v>
       </c>
       <c r="H21" s="3">
-        <v>58200</v>
+        <v>58300</v>
       </c>
       <c r="I21" s="3">
-        <v>66700</v>
+        <v>66900</v>
       </c>
       <c r="J21" s="3">
         <v>26000</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-120500</v>
+        <v>-120800</v>
       </c>
       <c r="E23" s="3">
         <v>1700</v>
       </c>
       <c r="F23" s="3">
-        <v>515700</v>
+        <v>516900</v>
       </c>
       <c r="G23" s="3">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="H23" s="3">
-        <v>54600</v>
+        <v>54700</v>
       </c>
       <c r="I23" s="3">
-        <v>64500</v>
+        <v>64700</v>
       </c>
       <c r="J23" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1324,16 +1324,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="E24" s="3">
         <v>2900</v>
       </c>
       <c r="F24" s="3">
-        <v>51000</v>
+        <v>51100</v>
       </c>
       <c r="G24" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="H24" s="3">
         <v>12300</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-153100</v>
+        <v>-153400</v>
       </c>
       <c r="E26" s="3">
         <v>-1200</v>
       </c>
       <c r="F26" s="3">
-        <v>464800</v>
+        <v>465800</v>
       </c>
       <c r="G26" s="3">
-        <v>55800</v>
+        <v>55900</v>
       </c>
       <c r="H26" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="I26" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="J26" s="3">
         <v>18400</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-153100</v>
+        <v>-153400</v>
       </c>
       <c r="E27" s="3">
         <v>-1200</v>
       </c>
       <c r="F27" s="3">
-        <v>464300</v>
+        <v>465300</v>
       </c>
       <c r="G27" s="3">
-        <v>53900</v>
+        <v>54000</v>
       </c>
       <c r="H27" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="I27" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J27" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1660,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12300</v>
+        <v>-12400</v>
       </c>
       <c r="E32" s="3">
         <v>-6900</v>
       </c>
       <c r="F32" s="3">
-        <v>-472300</v>
+        <v>-473300</v>
       </c>
       <c r="G32" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="H32" s="3">
         <v>-19100</v>
@@ -1678,7 +1678,7 @@
         <v>-1600</v>
       </c>
       <c r="J32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-153100</v>
+        <v>-153400</v>
       </c>
       <c r="E33" s="3">
         <v>-1200</v>
       </c>
       <c r="F33" s="3">
-        <v>464300</v>
+        <v>465300</v>
       </c>
       <c r="G33" s="3">
-        <v>53900</v>
+        <v>54000</v>
       </c>
       <c r="H33" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="I33" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J33" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-153100</v>
+        <v>-153400</v>
       </c>
       <c r="E35" s="3">
         <v>-1200</v>
       </c>
       <c r="F35" s="3">
-        <v>464300</v>
+        <v>465300</v>
       </c>
       <c r="G35" s="3">
-        <v>53900</v>
+        <v>54000</v>
       </c>
       <c r="H35" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="I35" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J35" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1911,22 +1911,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52200</v>
+        <v>52300</v>
       </c>
       <c r="E41" s="3">
-        <v>197700</v>
+        <v>198100</v>
       </c>
       <c r="F41" s="3">
-        <v>196600</v>
+        <v>197000</v>
       </c>
       <c r="G41" s="3">
-        <v>275900</v>
+        <v>276500</v>
       </c>
       <c r="H41" s="3">
-        <v>401300</v>
+        <v>402200</v>
       </c>
       <c r="I41" s="3">
-        <v>110700</v>
+        <v>110900</v>
       </c>
       <c r="J41" s="3">
         <v>6200</v>
@@ -1953,19 +1953,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>267500</v>
+        <v>268100</v>
       </c>
       <c r="E42" s="3">
-        <v>358100</v>
+        <v>358900</v>
       </c>
       <c r="F42" s="3">
-        <v>598300</v>
+        <v>599600</v>
       </c>
       <c r="G42" s="3">
-        <v>82300</v>
+        <v>82500</v>
       </c>
       <c r="H42" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="I42" s="3">
         <v>8600</v>
@@ -1995,19 +1995,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>254900</v>
+        <v>255500</v>
       </c>
       <c r="E43" s="3">
+        <v>354700</v>
+      </c>
+      <c r="F43" s="3">
         <v>353900</v>
       </c>
-      <c r="F43" s="3">
-        <v>353200</v>
-      </c>
       <c r="G43" s="3">
-        <v>255700</v>
+        <v>256300</v>
       </c>
       <c r="H43" s="3">
-        <v>168000</v>
+        <v>168400</v>
       </c>
       <c r="I43" s="3">
         <v>21400</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>179100</v>
+        <v>179500</v>
       </c>
       <c r="E45" s="3">
-        <v>138500</v>
+        <v>138800</v>
       </c>
       <c r="F45" s="3">
-        <v>78000</v>
+        <v>78200</v>
       </c>
       <c r="G45" s="3">
-        <v>149500</v>
+        <v>149800</v>
       </c>
       <c r="H45" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="I45" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J45" s="3">
         <v>1700</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>753700</v>
+        <v>755300</v>
       </c>
       <c r="E46" s="3">
-        <v>1048200</v>
+        <v>1050500</v>
       </c>
       <c r="F46" s="3">
-        <v>1226100</v>
+        <v>1228800</v>
       </c>
       <c r="G46" s="3">
-        <v>763400</v>
+        <v>765100</v>
       </c>
       <c r="H46" s="3">
-        <v>655100</v>
+        <v>656500</v>
       </c>
       <c r="I46" s="3">
-        <v>152700</v>
+        <v>153000</v>
       </c>
       <c r="J46" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59700</v>
+        <v>59900</v>
       </c>
       <c r="E47" s="3">
-        <v>210100</v>
+        <v>210500</v>
       </c>
       <c r="F47" s="3">
-        <v>239200</v>
+        <v>239700</v>
       </c>
       <c r="G47" s="3">
-        <v>276700</v>
+        <v>277300</v>
       </c>
       <c r="H47" s="3">
-        <v>217100</v>
+        <v>217600</v>
       </c>
       <c r="I47" s="3">
-        <v>66700</v>
+        <v>66900</v>
       </c>
       <c r="J47" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2205,7 +2205,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
@@ -2247,10 +2247,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="E49" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="F49" s="3">
         <v>26200</v>
@@ -2259,7 +2259,7 @@
         <v>26200</v>
       </c>
       <c r="H49" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2373,22 +2373,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E52" s="3">
-        <v>220500</v>
+        <v>221000</v>
       </c>
       <c r="F52" s="3">
-        <v>180600</v>
+        <v>181000</v>
       </c>
       <c r="G52" s="3">
-        <v>135400</v>
+        <v>135700</v>
       </c>
       <c r="H52" s="3">
-        <v>111000</v>
+        <v>111200</v>
       </c>
       <c r="I52" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="J52" s="3">
         <v>8900</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>966700</v>
+        <v>968800</v>
       </c>
       <c r="E54" s="3">
-        <v>1508300</v>
+        <v>1511600</v>
       </c>
       <c r="F54" s="3">
-        <v>1673500</v>
+        <v>1677100</v>
       </c>
       <c r="G54" s="3">
-        <v>1203700</v>
+        <v>1206300</v>
       </c>
       <c r="H54" s="3">
-        <v>1006000</v>
+        <v>1008100</v>
       </c>
       <c r="I54" s="3">
-        <v>275100</v>
+        <v>275700</v>
       </c>
       <c r="J54" s="3">
-        <v>98500</v>
+        <v>98700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2577,19 +2577,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>143000</v>
+        <v>143300</v>
       </c>
       <c r="E58" s="3">
-        <v>226200</v>
+        <v>226700</v>
       </c>
       <c r="F58" s="3">
-        <v>218300</v>
+        <v>218800</v>
       </c>
       <c r="G58" s="3">
-        <v>317300</v>
+        <v>318000</v>
       </c>
       <c r="H58" s="3">
-        <v>155300</v>
+        <v>155600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>205400</v>
+        <v>205900</v>
       </c>
       <c r="E59" s="3">
-        <v>244200</v>
+        <v>244700</v>
       </c>
       <c r="F59" s="3">
-        <v>119500</v>
+        <v>119800</v>
       </c>
       <c r="G59" s="3">
-        <v>82400</v>
+        <v>82500</v>
       </c>
       <c r="H59" s="3">
-        <v>58100</v>
+        <v>58200</v>
       </c>
       <c r="I59" s="3">
-        <v>71200</v>
+        <v>71400</v>
       </c>
       <c r="J59" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>348700</v>
+        <v>349500</v>
       </c>
       <c r="E60" s="3">
-        <v>470900</v>
+        <v>471900</v>
       </c>
       <c r="F60" s="3">
-        <v>338600</v>
+        <v>339300</v>
       </c>
       <c r="G60" s="3">
-        <v>400800</v>
+        <v>401700</v>
       </c>
       <c r="H60" s="3">
-        <v>215700</v>
+        <v>216100</v>
       </c>
       <c r="I60" s="3">
-        <v>72500</v>
+        <v>72700</v>
       </c>
       <c r="J60" s="3">
-        <v>39500</v>
+        <v>39600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2706,22 +2706,22 @@
         <v>10500</v>
       </c>
       <c r="E61" s="3">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="F61" s="3">
-        <v>134700</v>
+        <v>135000</v>
       </c>
       <c r="G61" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="H61" s="3">
-        <v>65100</v>
+        <v>65300</v>
       </c>
       <c r="I61" s="3">
-        <v>24100</v>
+        <v>24200</v>
       </c>
       <c r="J61" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>7200</v>
       </c>
       <c r="F62" s="3">
-        <v>46200</v>
+        <v>46300</v>
       </c>
       <c r="G62" s="3">
         <v>4700</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>371200</v>
+        <v>372000</v>
       </c>
       <c r="E66" s="3">
-        <v>545100</v>
+        <v>546300</v>
       </c>
       <c r="F66" s="3">
-        <v>519500</v>
+        <v>520700</v>
       </c>
       <c r="G66" s="3">
-        <v>449000</v>
+        <v>450000</v>
       </c>
       <c r="H66" s="3">
-        <v>282400</v>
+        <v>283000</v>
       </c>
       <c r="I66" s="3">
-        <v>105100</v>
+        <v>105300</v>
       </c>
       <c r="J66" s="3">
-        <v>71500</v>
+        <v>71700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>543100</v>
+        <v>544300</v>
       </c>
       <c r="J70" s="3">
-        <v>543100</v>
+        <v>544300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3144,22 +3144,22 @@
         <v>1300</v>
       </c>
       <c r="E72" s="3">
-        <v>412200</v>
+        <v>413000</v>
       </c>
       <c r="F72" s="3">
-        <v>545000</v>
+        <v>546200</v>
       </c>
       <c r="G72" s="3">
-        <v>117500</v>
+        <v>117700</v>
       </c>
       <c r="H72" s="3">
-        <v>96200</v>
+        <v>96400</v>
       </c>
       <c r="I72" s="3">
-        <v>-373600</v>
+        <v>-374400</v>
       </c>
       <c r="J72" s="3">
-        <v>-516800</v>
+        <v>-517900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>595500</v>
+        <v>596800</v>
       </c>
       <c r="E76" s="3">
-        <v>963200</v>
+        <v>965300</v>
       </c>
       <c r="F76" s="3">
-        <v>1153900</v>
+        <v>1156400</v>
       </c>
       <c r="G76" s="3">
-        <v>754700</v>
+        <v>756400</v>
       </c>
       <c r="H76" s="3">
-        <v>723600</v>
+        <v>725200</v>
       </c>
       <c r="I76" s="3">
-        <v>-373000</v>
+        <v>-373900</v>
       </c>
       <c r="J76" s="3">
-        <v>-516100</v>
+        <v>-517300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-153100</v>
+        <v>-153400</v>
       </c>
       <c r="E81" s="3">
         <v>-1200</v>
       </c>
       <c r="F81" s="3">
-        <v>464300</v>
+        <v>465300</v>
       </c>
       <c r="G81" s="3">
-        <v>53900</v>
+        <v>54000</v>
       </c>
       <c r="H81" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="I81" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="J81" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-78200</v>
+        <v>-78300</v>
       </c>
       <c r="E89" s="3">
-        <v>-55700</v>
+        <v>-55800</v>
       </c>
       <c r="F89" s="3">
-        <v>-85600</v>
+        <v>-85800</v>
       </c>
       <c r="G89" s="3">
-        <v>58300</v>
+        <v>58400</v>
       </c>
       <c r="H89" s="3">
         <v>25500</v>
       </c>
       <c r="I89" s="3">
-        <v>81200</v>
+        <v>81400</v>
       </c>
       <c r="J89" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>270000</v>
+        <v>270600</v>
       </c>
       <c r="E94" s="3">
-        <v>366700</v>
+        <v>367500</v>
       </c>
       <c r="F94" s="3">
-        <v>-68000</v>
+        <v>-68200</v>
       </c>
       <c r="G94" s="3">
-        <v>-165100</v>
+        <v>-165500</v>
       </c>
       <c r="H94" s="3">
-        <v>-225800</v>
+        <v>-226300</v>
       </c>
       <c r="I94" s="3">
-        <v>-22400</v>
+        <v>-22500</v>
       </c>
       <c r="J94" s="3">
-        <v>-37500</v>
+        <v>-37600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3998,16 +3998,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-257800</v>
+        <v>-258400</v>
       </c>
       <c r="E96" s="3">
-        <v>-131600</v>
+        <v>-131900</v>
       </c>
       <c r="F96" s="3">
-        <v>-36800</v>
+        <v>-36900</v>
       </c>
       <c r="G96" s="3">
-        <v>-35400</v>
+        <v>-35500</v>
       </c>
       <c r="H96" s="3">
         <v>-3700</v>
@@ -4166,22 +4166,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-412000</v>
+        <v>-412900</v>
       </c>
       <c r="E100" s="3">
-        <v>-268200</v>
+        <v>-268800</v>
       </c>
       <c r="F100" s="3">
-        <v>-52500</v>
+        <v>-52600</v>
       </c>
       <c r="G100" s="3">
-        <v>100700</v>
+        <v>100900</v>
       </c>
       <c r="H100" s="3">
-        <v>563700</v>
+        <v>564900</v>
       </c>
       <c r="I100" s="3">
-        <v>94500</v>
+        <v>94700</v>
       </c>
       <c r="J100" s="3">
         <v>25800</v>
@@ -4208,7 +4208,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="E101" s="3">
         <v>-2100</v>
@@ -4220,7 +4220,7 @@
         <v>1600</v>
       </c>
       <c r="H101" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="I101" s="3">
         <v>-3500</v>
@@ -4250,22 +4250,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-182900</v>
+        <v>-183300</v>
       </c>
       <c r="E102" s="3">
-        <v>40700</v>
+        <v>40800</v>
       </c>
       <c r="F102" s="3">
-        <v>-211100</v>
+        <v>-211600</v>
       </c>
       <c r="G102" s="3">
         <v>-4600</v>
       </c>
       <c r="H102" s="3">
-        <v>378600</v>
+        <v>379400</v>
       </c>
       <c r="I102" s="3">
-        <v>149700</v>
+        <v>150000</v>
       </c>
       <c r="J102" s="3">
         <v>-300</v>
